--- a/BackTest/2020-01-24 BackTest MTL.xlsx
+++ b/BackTest/2020-01-24 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:M308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>281.8</v>
+        <v>281.9</v>
       </c>
       <c r="C2" t="n">
         <v>281.8</v>
       </c>
       <c r="D2" t="n">
-        <v>281.8</v>
+        <v>281.9</v>
       </c>
       <c r="E2" t="n">
         <v>281.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1540.9385</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>281.6266666666666</v>
+        <v>281.5966666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>281.8</v>
       </c>
       <c r="F3" t="n">
-        <v>2284.2685</v>
+        <v>1540.9385</v>
       </c>
       <c r="G3" t="n">
-        <v>281.6583333333332</v>
+        <v>281.6266666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>281.5</v>
+        <v>281.8</v>
       </c>
       <c r="C4" t="n">
-        <v>281.5</v>
+        <v>281.8</v>
       </c>
       <c r="D4" t="n">
-        <v>281.5</v>
+        <v>281.8</v>
       </c>
       <c r="E4" t="n">
-        <v>281.5</v>
+        <v>281.8</v>
       </c>
       <c r="F4" t="n">
-        <v>5876.1731</v>
+        <v>2284.2685</v>
       </c>
       <c r="G4" t="n">
-        <v>281.6849999999998</v>
+        <v>281.6583333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>282.1</v>
+        <v>281.5</v>
       </c>
       <c r="C5" t="n">
-        <v>282.2</v>
+        <v>281.5</v>
       </c>
       <c r="D5" t="n">
-        <v>282.2</v>
+        <v>281.5</v>
       </c>
       <c r="E5" t="n">
-        <v>282.1</v>
+        <v>281.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1100.0878</v>
+        <v>5876.1731</v>
       </c>
       <c r="G5" t="n">
-        <v>281.7233333333332</v>
+        <v>281.6849999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>282.1</v>
+      </c>
+      <c r="C6" t="n">
         <v>282.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>282</v>
       </c>
       <c r="D6" t="n">
         <v>282.2</v>
       </c>
       <c r="E6" t="n">
-        <v>282</v>
+        <v>282.1</v>
       </c>
       <c r="F6" t="n">
-        <v>4111.7575</v>
+        <v>1100.0878</v>
       </c>
       <c r="G6" t="n">
-        <v>281.7583333333332</v>
+        <v>281.7233333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>283.4</v>
+        <v>282.2</v>
       </c>
       <c r="C7" t="n">
-        <v>283.4</v>
+        <v>282</v>
       </c>
       <c r="D7" t="n">
-        <v>283.4</v>
+        <v>282.2</v>
       </c>
       <c r="E7" t="n">
-        <v>283.4</v>
+        <v>282</v>
       </c>
       <c r="F7" t="n">
-        <v>9543.0458</v>
+        <v>4111.7575</v>
       </c>
       <c r="G7" t="n">
-        <v>281.8166666666665</v>
+        <v>281.7583333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>283.5</v>
+        <v>283.4</v>
       </c>
       <c r="C8" t="n">
-        <v>284.6</v>
+        <v>283.4</v>
       </c>
       <c r="D8" t="n">
-        <v>284.6</v>
+        <v>283.4</v>
       </c>
       <c r="E8" t="n">
-        <v>283.5</v>
+        <v>283.4</v>
       </c>
       <c r="F8" t="n">
-        <v>22388.8077</v>
+        <v>9543.0458</v>
       </c>
       <c r="G8" t="n">
-        <v>281.8949999999998</v>
+        <v>281.8166666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>284.6</v>
+        <v>283.5</v>
       </c>
       <c r="C9" t="n">
         <v>284.6</v>
@@ -687,13 +687,13 @@
         <v>284.6</v>
       </c>
       <c r="E9" t="n">
-        <v>284.6</v>
+        <v>283.5</v>
       </c>
       <c r="F9" t="n">
-        <v>276.3974</v>
+        <v>22388.8077</v>
       </c>
       <c r="G9" t="n">
-        <v>281.9733333333331</v>
+        <v>281.8949999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>283.2</v>
+        <v>284.6</v>
       </c>
       <c r="C10" t="n">
-        <v>283.2</v>
+        <v>284.6</v>
       </c>
       <c r="D10" t="n">
-        <v>283.2</v>
+        <v>284.6</v>
       </c>
       <c r="E10" t="n">
-        <v>283.2</v>
+        <v>284.6</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>276.3974</v>
       </c>
       <c r="G10" t="n">
-        <v>282.0099999999997</v>
+        <v>281.9733333333331</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>284.6</v>
+        <v>283.2</v>
       </c>
       <c r="C11" t="n">
-        <v>284.6</v>
+        <v>283.2</v>
       </c>
       <c r="D11" t="n">
-        <v>284.6</v>
+        <v>283.2</v>
       </c>
       <c r="E11" t="n">
-        <v>284.6</v>
+        <v>283.2</v>
       </c>
       <c r="F11" t="n">
-        <v>27.6373</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>282.088333333333</v>
+        <v>282.0099999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>284.6</v>
       </c>
       <c r="F12" t="n">
-        <v>6147.6854</v>
+        <v>27.6373</v>
       </c>
       <c r="G12" t="n">
-        <v>282.1449999999996</v>
+        <v>282.088333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>284.6</v>
       </c>
       <c r="C13" t="n">
-        <v>284.8</v>
+        <v>284.6</v>
       </c>
       <c r="D13" t="n">
-        <v>284.8</v>
+        <v>284.6</v>
       </c>
       <c r="E13" t="n">
         <v>284.6</v>
       </c>
       <c r="F13" t="n">
-        <v>3365.6652</v>
+        <v>6147.6854</v>
       </c>
       <c r="G13" t="n">
-        <v>282.208333333333</v>
+        <v>282.1449999999996</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>284.8</v>
+        <v>284.6</v>
       </c>
       <c r="C14" t="n">
         <v>284.8</v>
@@ -862,13 +862,13 @@
         <v>284.8</v>
       </c>
       <c r="E14" t="n">
-        <v>284.8</v>
+        <v>284.6</v>
       </c>
       <c r="F14" t="n">
-        <v>9657.594999999999</v>
+        <v>3365.6652</v>
       </c>
       <c r="G14" t="n">
-        <v>282.2716666666663</v>
+        <v>282.208333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>284.7</v>
+        <v>284.8</v>
       </c>
       <c r="C15" t="n">
-        <v>284.6</v>
+        <v>284.8</v>
       </c>
       <c r="D15" t="n">
-        <v>284.7</v>
+        <v>284.8</v>
       </c>
       <c r="E15" t="n">
-        <v>284.6</v>
+        <v>284.8</v>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>9657.594999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>282.3316666666663</v>
+        <v>282.2716666666663</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>284</v>
+        <v>284.7</v>
       </c>
       <c r="C16" t="n">
-        <v>284</v>
+        <v>284.6</v>
       </c>
       <c r="D16" t="n">
-        <v>284</v>
+        <v>284.7</v>
       </c>
       <c r="E16" t="n">
-        <v>284</v>
+        <v>284.6</v>
       </c>
       <c r="F16" t="n">
-        <v>11520.4261</v>
+        <v>200</v>
       </c>
       <c r="G16" t="n">
-        <v>282.3783333333329</v>
+        <v>282.3316666666663</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>283.7</v>
+        <v>284</v>
       </c>
       <c r="C17" t="n">
-        <v>282.1</v>
+        <v>284</v>
       </c>
       <c r="D17" t="n">
-        <v>283.7</v>
+        <v>284</v>
       </c>
       <c r="E17" t="n">
-        <v>282.1</v>
+        <v>284</v>
       </c>
       <c r="F17" t="n">
-        <v>15000</v>
+        <v>11520.4261</v>
       </c>
       <c r="G17" t="n">
-        <v>282.3916666666663</v>
+        <v>282.3783333333329</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>282.1</v>
+        <v>283.7</v>
       </c>
       <c r="C18" t="n">
         <v>282.1</v>
       </c>
       <c r="D18" t="n">
-        <v>282.1</v>
+        <v>283.7</v>
       </c>
       <c r="E18" t="n">
         <v>282.1</v>
       </c>
       <c r="F18" t="n">
-        <v>212</v>
+        <v>15000</v>
       </c>
       <c r="G18" t="n">
-        <v>282.3999999999996</v>
+        <v>282.3916666666663</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>283.7</v>
+        <v>282.1</v>
       </c>
       <c r="C19" t="n">
-        <v>283.7</v>
+        <v>282.1</v>
       </c>
       <c r="D19" t="n">
-        <v>283.7</v>
+        <v>282.1</v>
       </c>
       <c r="E19" t="n">
-        <v>283.7</v>
+        <v>282.1</v>
       </c>
       <c r="F19" t="n">
-        <v>19.58054282</v>
+        <v>212</v>
       </c>
       <c r="G19" t="n">
-        <v>282.4349999999996</v>
+        <v>282.3999999999996</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>282.1</v>
+        <v>283.7</v>
       </c>
       <c r="C20" t="n">
-        <v>282</v>
+        <v>283.7</v>
       </c>
       <c r="D20" t="n">
-        <v>282.1</v>
+        <v>283.7</v>
       </c>
       <c r="E20" t="n">
-        <v>282</v>
+        <v>283.7</v>
       </c>
       <c r="F20" t="n">
-        <v>7175.372</v>
+        <v>19.58054282</v>
       </c>
       <c r="G20" t="n">
-        <v>282.468333333333</v>
+        <v>282.4349999999996</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>282</v>
+        <v>282.1</v>
       </c>
       <c r="C21" t="n">
         <v>282</v>
       </c>
       <c r="D21" t="n">
-        <v>282</v>
+        <v>282.1</v>
       </c>
       <c r="E21" t="n">
         <v>282</v>
       </c>
       <c r="F21" t="n">
-        <v>624.202</v>
+        <v>7175.372</v>
       </c>
       <c r="G21" t="n">
-        <v>282.4699999999996</v>
+        <v>282.468333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>281.5</v>
+        <v>282</v>
       </c>
       <c r="C22" t="n">
-        <v>281.5</v>
+        <v>282</v>
       </c>
       <c r="D22" t="n">
-        <v>281.5</v>
+        <v>282</v>
       </c>
       <c r="E22" t="n">
-        <v>281.5</v>
+        <v>282</v>
       </c>
       <c r="F22" t="n">
-        <v>121.9363</v>
+        <v>624.202</v>
       </c>
       <c r="G22" t="n">
-        <v>282.4566666666663</v>
+        <v>282.4699999999996</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>281.5</v>
       </c>
       <c r="F23" t="n">
-        <v>13000</v>
+        <v>121.9363</v>
       </c>
       <c r="G23" t="n">
-        <v>282.473333333333</v>
+        <v>282.4566666666663</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>282.8</v>
+        <v>281.5</v>
       </c>
       <c r="C24" t="n">
-        <v>282.8</v>
+        <v>281.5</v>
       </c>
       <c r="D24" t="n">
-        <v>282.8</v>
+        <v>281.5</v>
       </c>
       <c r="E24" t="n">
-        <v>282.8</v>
+        <v>281.5</v>
       </c>
       <c r="F24" t="n">
-        <v>14.49787835</v>
+        <v>13000</v>
       </c>
       <c r="G24" t="n">
-        <v>282.5116666666663</v>
+        <v>282.473333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>281.6</v>
+        <v>282.8</v>
       </c>
       <c r="C25" t="n">
-        <v>281.6</v>
+        <v>282.8</v>
       </c>
       <c r="D25" t="n">
-        <v>281.6</v>
+        <v>282.8</v>
       </c>
       <c r="E25" t="n">
-        <v>281.6</v>
+        <v>282.8</v>
       </c>
       <c r="F25" t="n">
-        <v>7175.3721</v>
+        <v>14.49787835</v>
       </c>
       <c r="G25" t="n">
-        <v>282.5216666666662</v>
+        <v>282.5116666666663</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>281.9</v>
+        <v>281.6</v>
       </c>
       <c r="C26" t="n">
-        <v>281.8</v>
+        <v>281.6</v>
       </c>
       <c r="D26" t="n">
-        <v>281.9</v>
+        <v>281.6</v>
       </c>
       <c r="E26" t="n">
-        <v>281.8</v>
+        <v>281.6</v>
       </c>
       <c r="F26" t="n">
-        <v>5918.1551</v>
+        <v>7175.3721</v>
       </c>
       <c r="G26" t="n">
-        <v>282.5349999999996</v>
+        <v>282.5216666666662</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>281.6</v>
+        <v>281.9</v>
       </c>
       <c r="C27" t="n">
-        <v>281</v>
+        <v>281.8</v>
       </c>
       <c r="D27" t="n">
-        <v>281.6</v>
+        <v>281.9</v>
       </c>
       <c r="E27" t="n">
-        <v>281</v>
+        <v>281.8</v>
       </c>
       <c r="F27" t="n">
-        <v>8850</v>
+        <v>5918.1551</v>
       </c>
       <c r="G27" t="n">
         <v>282.5349999999996</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>282.7</v>
+        <v>281.6</v>
       </c>
       <c r="C28" t="n">
-        <v>282.7</v>
+        <v>281</v>
       </c>
       <c r="D28" t="n">
-        <v>282.7</v>
+        <v>281.6</v>
       </c>
       <c r="E28" t="n">
-        <v>282.7</v>
+        <v>281</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>8850</v>
       </c>
       <c r="G28" t="n">
-        <v>282.5716666666662</v>
+        <v>282.5349999999996</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>281.1</v>
+        <v>282.7</v>
       </c>
       <c r="C29" t="n">
-        <v>281</v>
+        <v>282.7</v>
       </c>
       <c r="D29" t="n">
-        <v>281.1</v>
+        <v>282.7</v>
       </c>
       <c r="E29" t="n">
-        <v>281</v>
+        <v>282.7</v>
       </c>
       <c r="F29" t="n">
-        <v>1005.7031</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>282.5866666666662</v>
+        <v>282.5716666666662</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>281</v>
+        <v>281.1</v>
       </c>
       <c r="C30" t="n">
         <v>281</v>
       </c>
       <c r="D30" t="n">
-        <v>281</v>
+        <v>281.1</v>
       </c>
       <c r="E30" t="n">
         <v>281</v>
       </c>
       <c r="F30" t="n">
-        <v>3681.3437</v>
+        <v>1005.7031</v>
       </c>
       <c r="G30" t="n">
-        <v>282.6016666666663</v>
+        <v>282.5866666666662</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>280.6</v>
+        <v>281</v>
       </c>
       <c r="C31" t="n">
-        <v>280.6</v>
+        <v>281</v>
       </c>
       <c r="D31" t="n">
-        <v>280.6</v>
+        <v>281</v>
       </c>
       <c r="E31" t="n">
-        <v>280.6</v>
+        <v>281</v>
       </c>
       <c r="F31" t="n">
-        <v>9273.960499999999</v>
+        <v>3681.3437</v>
       </c>
       <c r="G31" t="n">
-        <v>282.5949999999996</v>
+        <v>282.6016666666663</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>280.6</v>
       </c>
       <c r="C32" t="n">
-        <v>281.8</v>
+        <v>280.6</v>
       </c>
       <c r="D32" t="n">
-        <v>281.8</v>
+        <v>280.6</v>
       </c>
       <c r="E32" t="n">
         <v>280.6</v>
       </c>
       <c r="F32" t="n">
-        <v>5980</v>
+        <v>9273.960499999999</v>
       </c>
       <c r="G32" t="n">
-        <v>282.5883333333329</v>
+        <v>282.5949999999996</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>280.6</v>
       </c>
       <c r="C33" t="n">
-        <v>279.6</v>
+        <v>281.8</v>
       </c>
       <c r="D33" t="n">
+        <v>281.8</v>
+      </c>
+      <c r="E33" t="n">
         <v>280.6</v>
       </c>
-      <c r="E33" t="n">
-        <v>279.6</v>
-      </c>
       <c r="F33" t="n">
-        <v>2156.7078</v>
+        <v>5980</v>
       </c>
       <c r="G33" t="n">
-        <v>282.5449999999995</v>
+        <v>282.5883333333329</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>281</v>
+        <v>280.6</v>
       </c>
       <c r="C34" t="n">
-        <v>281</v>
+        <v>279.6</v>
       </c>
       <c r="D34" t="n">
-        <v>281</v>
+        <v>280.6</v>
       </c>
       <c r="E34" t="n">
-        <v>281</v>
+        <v>279.6</v>
       </c>
       <c r="F34" t="n">
-        <v>19.672</v>
+        <v>2156.7078</v>
       </c>
       <c r="G34" t="n">
-        <v>282.5133333333328</v>
+        <v>282.5449999999995</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C35" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D35" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E35" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>19.672</v>
       </c>
       <c r="G35" t="n">
-        <v>282.4983333333328</v>
+        <v>282.5133333333328</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>282</v>
       </c>
       <c r="C36" t="n">
-        <v>282.2</v>
+        <v>282</v>
       </c>
       <c r="D36" t="n">
-        <v>282.2</v>
+        <v>282</v>
       </c>
       <c r="E36" t="n">
         <v>282</v>
       </c>
       <c r="F36" t="n">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>282.5083333333329</v>
+        <v>282.4983333333328</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>282</v>
+      </c>
+      <c r="C37" t="n">
         <v>282.2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>281.9</v>
       </c>
       <c r="D37" t="n">
         <v>282.2</v>
       </c>
       <c r="E37" t="n">
-        <v>281.9</v>
+        <v>282</v>
       </c>
       <c r="F37" t="n">
-        <v>1015.8646</v>
+        <v>170</v>
       </c>
       <c r="G37" t="n">
-        <v>282.4883333333329</v>
+        <v>282.5083333333329</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>281.9</v>
+        <v>282.2</v>
       </c>
       <c r="C38" t="n">
         <v>281.9</v>
       </c>
       <c r="D38" t="n">
-        <v>281.9</v>
+        <v>282.2</v>
       </c>
       <c r="E38" t="n">
         <v>281.9</v>
       </c>
       <c r="F38" t="n">
-        <v>162.7489</v>
+        <v>1015.8646</v>
       </c>
       <c r="G38" t="n">
-        <v>282.473333333333</v>
+        <v>282.4883333333329</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>283</v>
+        <v>281.9</v>
       </c>
       <c r="C39" t="n">
-        <v>283</v>
+        <v>281.9</v>
       </c>
       <c r="D39" t="n">
-        <v>283</v>
+        <v>281.9</v>
       </c>
       <c r="E39" t="n">
-        <v>283</v>
+        <v>281.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>162.7489</v>
       </c>
       <c r="G39" t="n">
-        <v>282.4716666666663</v>
+        <v>282.473333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,19 +1763,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>283.1</v>
+        <v>283</v>
       </c>
       <c r="C40" t="n">
-        <v>283.1</v>
+        <v>283</v>
       </c>
       <c r="D40" t="n">
-        <v>283.1</v>
+        <v>283</v>
       </c>
       <c r="E40" t="n">
-        <v>283.1</v>
+        <v>283</v>
       </c>
       <c r="F40" t="n">
-        <v>13.8733</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>282.4716666666663</v>
@@ -1801,19 +1801,19 @@
         <v>283.1</v>
       </c>
       <c r="C41" t="n">
-        <v>283</v>
+        <v>283.1</v>
       </c>
       <c r="D41" t="n">
         <v>283.1</v>
       </c>
       <c r="E41" t="n">
-        <v>283</v>
+        <v>283.1</v>
       </c>
       <c r="F41" t="n">
-        <v>13164.7767</v>
+        <v>13.8733</v>
       </c>
       <c r="G41" t="n">
-        <v>282.4699999999996</v>
+        <v>282.4716666666663</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>282</v>
+        <v>283.1</v>
       </c>
       <c r="C42" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D42" t="n">
-        <v>282</v>
+        <v>283.1</v>
       </c>
       <c r="E42" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F42" t="n">
-        <v>972.2076</v>
+        <v>13164.7767</v>
       </c>
       <c r="G42" t="n">
-        <v>282.4383333333329</v>
+        <v>282.4699999999996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C43" t="n">
         <v>282</v>
       </c>
       <c r="D43" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E43" t="n">
         <v>282</v>
       </c>
       <c r="F43" t="n">
-        <v>3474.2164</v>
+        <v>972.2076</v>
       </c>
       <c r="G43" t="n">
-        <v>282.4049999999996</v>
+        <v>282.4383333333329</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>283</v>
       </c>
       <c r="C44" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D44" t="n">
         <v>283</v>
       </c>
       <c r="E44" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F44" t="n">
-        <v>3335.4981</v>
+        <v>3474.2164</v>
       </c>
       <c r="G44" t="n">
-        <v>282.403333333333</v>
+        <v>282.4049999999996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>282.4</v>
+        <v>283</v>
       </c>
       <c r="C45" t="n">
-        <v>282.4</v>
+        <v>283</v>
       </c>
       <c r="D45" t="n">
-        <v>282.4</v>
+        <v>283</v>
       </c>
       <c r="E45" t="n">
-        <v>282.4</v>
+        <v>283</v>
       </c>
       <c r="F45" t="n">
-        <v>1114.8096</v>
+        <v>3335.4981</v>
       </c>
       <c r="G45" t="n">
-        <v>282.3949999999996</v>
+        <v>282.403333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>282.4</v>
       </c>
       <c r="F46" t="n">
-        <v>600</v>
+        <v>1114.8096</v>
       </c>
       <c r="G46" t="n">
-        <v>282.368333333333</v>
+        <v>282.3949999999996</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>282.4</v>
       </c>
       <c r="F47" t="n">
-        <v>213.77</v>
+        <v>600</v>
       </c>
       <c r="G47" t="n">
-        <v>282.3733333333331</v>
+        <v>282.368333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>282.4</v>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>213.77</v>
       </c>
       <c r="G48" t="n">
-        <v>282.3783333333331</v>
+        <v>282.3733333333331</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>282.4</v>
       </c>
       <c r="F49" t="n">
-        <v>218.38</v>
+        <v>500</v>
       </c>
       <c r="G49" t="n">
-        <v>282.3833333333332</v>
+        <v>282.3783333333331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2122,13 +2122,13 @@
         <v>282.4</v>
       </c>
       <c r="E50" t="n">
-        <v>281.4</v>
+        <v>282.4</v>
       </c>
       <c r="F50" t="n">
-        <v>15855.2976</v>
+        <v>218.38</v>
       </c>
       <c r="G50" t="n">
-        <v>282.3883333333332</v>
+        <v>282.3833333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>282.2</v>
+        <v>282.4</v>
       </c>
       <c r="C51" t="n">
-        <v>282.2</v>
+        <v>282.4</v>
       </c>
       <c r="D51" t="n">
-        <v>282.2</v>
+        <v>282.4</v>
       </c>
       <c r="E51" t="n">
-        <v>282.2</v>
+        <v>281.4</v>
       </c>
       <c r="F51" t="n">
-        <v>967.249</v>
+        <v>15855.2976</v>
       </c>
       <c r="G51" t="n">
-        <v>282.3899999999999</v>
+        <v>282.3883333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>282.2</v>
       </c>
       <c r="C52" t="n">
-        <v>281.4</v>
+        <v>282.2</v>
       </c>
       <c r="D52" t="n">
         <v>282.2</v>
       </c>
       <c r="E52" t="n">
-        <v>281.4</v>
+        <v>282.2</v>
       </c>
       <c r="F52" t="n">
-        <v>3537.8385</v>
+        <v>967.249</v>
       </c>
       <c r="G52" t="n">
-        <v>282.3783333333333</v>
+        <v>282.3899999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>281.4</v>
+        <v>282.2</v>
       </c>
       <c r="C53" t="n">
         <v>281.4</v>
       </c>
       <c r="D53" t="n">
-        <v>281.4</v>
+        <v>282.2</v>
       </c>
       <c r="E53" t="n">
         <v>281.4</v>
       </c>
       <c r="F53" t="n">
-        <v>1561.9999</v>
+        <v>3537.8385</v>
       </c>
       <c r="G53" t="n">
-        <v>282.3666666666667</v>
+        <v>282.3783333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>281.3</v>
+        <v>281.4</v>
       </c>
       <c r="C54" t="n">
-        <v>281.2</v>
+        <v>281.4</v>
       </c>
       <c r="D54" t="n">
-        <v>281.3</v>
+        <v>281.4</v>
       </c>
       <c r="E54" t="n">
-        <v>281.2</v>
+        <v>281.4</v>
       </c>
       <c r="F54" t="n">
-        <v>2170.5811</v>
+        <v>1561.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>282.3333333333333</v>
+        <v>282.3666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>281.3</v>
+      </c>
+      <c r="C55" t="n">
         <v>281.2</v>
       </c>
-      <c r="C55" t="n">
-        <v>281</v>
-      </c>
       <c r="D55" t="n">
+        <v>281.3</v>
+      </c>
+      <c r="E55" t="n">
         <v>281.2</v>
       </c>
-      <c r="E55" t="n">
-        <v>281</v>
-      </c>
       <c r="F55" t="n">
-        <v>2955.4119</v>
+        <v>2170.5811</v>
       </c>
       <c r="G55" t="n">
-        <v>282.32</v>
+        <v>282.3333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>281</v>
+        <v>281.2</v>
       </c>
       <c r="C56" t="n">
         <v>281</v>
       </c>
       <c r="D56" t="n">
-        <v>281</v>
+        <v>281.2</v>
       </c>
       <c r="E56" t="n">
         <v>281</v>
       </c>
       <c r="F56" t="n">
-        <v>678.2119</v>
+        <v>2955.4119</v>
       </c>
       <c r="G56" t="n">
-        <v>282.305</v>
+        <v>282.32</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>281</v>
       </c>
       <c r="F57" t="n">
-        <v>1805.756</v>
+        <v>678.2119</v>
       </c>
       <c r="G57" t="n">
-        <v>282.29</v>
+        <v>282.305</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>280.8</v>
+        <v>281</v>
       </c>
       <c r="C58" t="n">
-        <v>278.1</v>
+        <v>281</v>
       </c>
       <c r="D58" t="n">
-        <v>280.8</v>
+        <v>281</v>
       </c>
       <c r="E58" t="n">
-        <v>278.1</v>
+        <v>281</v>
       </c>
       <c r="F58" t="n">
-        <v>3399.8812</v>
+        <v>1805.756</v>
       </c>
       <c r="G58" t="n">
-        <v>282.2266666666666</v>
+        <v>282.29</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>278.2</v>
+        <v>280.8</v>
       </c>
       <c r="C59" t="n">
-        <v>280.4</v>
+        <v>278.1</v>
       </c>
       <c r="D59" t="n">
-        <v>280.4</v>
+        <v>280.8</v>
       </c>
       <c r="E59" t="n">
         <v>278.1</v>
       </c>
       <c r="F59" t="n">
-        <v>17099.28299058</v>
+        <v>3399.8812</v>
       </c>
       <c r="G59" t="n">
-        <v>282.2016666666666</v>
+        <v>282.2266666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>279</v>
+        <v>278.2</v>
       </c>
       <c r="C60" t="n">
-        <v>279</v>
+        <v>280.4</v>
       </c>
       <c r="D60" t="n">
-        <v>279</v>
+        <v>280.4</v>
       </c>
       <c r="E60" t="n">
-        <v>279</v>
+        <v>278.1</v>
       </c>
       <c r="F60" t="n">
-        <v>25.8781</v>
+        <v>17099.28299058</v>
       </c>
       <c r="G60" t="n">
-        <v>282.1549999999999</v>
+        <v>282.2016666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>279</v>
       </c>
       <c r="F61" t="n">
-        <v>8938.227800000001</v>
+        <v>25.8781</v>
       </c>
       <c r="G61" t="n">
-        <v>282.1083333333333</v>
+        <v>282.1549999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>278.1</v>
+        <v>279</v>
       </c>
       <c r="C62" t="n">
-        <v>278.1</v>
+        <v>279</v>
       </c>
       <c r="D62" t="n">
-        <v>278.1</v>
+        <v>279</v>
       </c>
       <c r="E62" t="n">
-        <v>278.1</v>
+        <v>279</v>
       </c>
       <c r="F62" t="n">
-        <v>15937.8322</v>
+        <v>8938.227800000001</v>
       </c>
       <c r="G62" t="n">
-        <v>282.0466666666666</v>
+        <v>282.1083333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>278.1</v>
       </c>
       <c r="C63" t="n">
-        <v>279</v>
+        <v>278.1</v>
       </c>
       <c r="D63" t="n">
-        <v>279</v>
+        <v>278.1</v>
       </c>
       <c r="E63" t="n">
         <v>278.1</v>
       </c>
       <c r="F63" t="n">
-        <v>13953.8147</v>
+        <v>15937.8322</v>
       </c>
       <c r="G63" t="n">
-        <v>281.9999999999999</v>
+        <v>282.0466666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>278.1</v>
+      </c>
+      <c r="C64" t="n">
         <v>279</v>
-      </c>
-      <c r="C64" t="n">
-        <v>278.1</v>
       </c>
       <c r="D64" t="n">
         <v>279</v>
@@ -2615,10 +2615,10 @@
         <v>278.1</v>
       </c>
       <c r="F64" t="n">
-        <v>3394.2996</v>
+        <v>13953.8147</v>
       </c>
       <c r="G64" t="n">
-        <v>281.9433333333333</v>
+        <v>281.9999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>279</v>
+      </c>
+      <c r="C65" t="n">
         <v>278.1</v>
       </c>
-      <c r="C65" t="n">
-        <v>277.5</v>
-      </c>
       <c r="D65" t="n">
+        <v>279</v>
+      </c>
+      <c r="E65" t="n">
         <v>278.1</v>
       </c>
-      <c r="E65" t="n">
-        <v>277.5</v>
-      </c>
       <c r="F65" t="n">
-        <v>6251.626</v>
+        <v>3394.2996</v>
       </c>
       <c r="G65" t="n">
-        <v>281.8649999999999</v>
+        <v>281.9433333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>277.4</v>
+        <v>278.1</v>
       </c>
       <c r="C66" t="n">
         <v>277.5</v>
       </c>
       <c r="D66" t="n">
+        <v>278.1</v>
+      </c>
+      <c r="E66" t="n">
         <v>277.5</v>
       </c>
-      <c r="E66" t="n">
-        <v>277.4</v>
-      </c>
       <c r="F66" t="n">
-        <v>2844.8357</v>
+        <v>6251.626</v>
       </c>
       <c r="G66" t="n">
-        <v>281.7899999999999</v>
+        <v>281.8649999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>277.4</v>
+      </c>
+      <c r="C67" t="n">
         <v>277.5</v>
-      </c>
-      <c r="C67" t="n">
-        <v>277.3</v>
       </c>
       <c r="D67" t="n">
         <v>277.5</v>
       </c>
       <c r="E67" t="n">
-        <v>277.3</v>
+        <v>277.4</v>
       </c>
       <c r="F67" t="n">
-        <v>6347.5167</v>
+        <v>2844.8357</v>
       </c>
       <c r="G67" t="n">
-        <v>281.6883333333332</v>
+        <v>281.7899999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>277.3</v>
+        <v>277.5</v>
       </c>
       <c r="C68" t="n">
         <v>277.3</v>
       </c>
       <c r="D68" t="n">
-        <v>277.3</v>
+        <v>277.5</v>
       </c>
       <c r="E68" t="n">
         <v>277.3</v>
       </c>
       <c r="F68" t="n">
-        <v>2717.5385</v>
+        <v>6347.5167</v>
       </c>
       <c r="G68" t="n">
-        <v>281.5666666666665</v>
+        <v>281.6883333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>277.5</v>
+        <v>277.3</v>
       </c>
       <c r="C69" t="n">
-        <v>277.5</v>
+        <v>277.3</v>
       </c>
       <c r="D69" t="n">
-        <v>277.5</v>
+        <v>277.3</v>
       </c>
       <c r="E69" t="n">
-        <v>277.5</v>
+        <v>277.3</v>
       </c>
       <c r="F69" t="n">
-        <v>970.2910000000001</v>
+        <v>2717.5385</v>
       </c>
       <c r="G69" t="n">
-        <v>281.4483333333332</v>
+        <v>281.5666666666665</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>277.3</v>
+        <v>277.5</v>
       </c>
       <c r="C70" t="n">
-        <v>277.3</v>
+        <v>277.5</v>
       </c>
       <c r="D70" t="n">
-        <v>277.3</v>
+        <v>277.5</v>
       </c>
       <c r="E70" t="n">
-        <v>277.3</v>
+        <v>277.5</v>
       </c>
       <c r="F70" t="n">
-        <v>2293.7432</v>
+        <v>970.2910000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>281.3499999999999</v>
+        <v>281.4483333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>277.2</v>
+        <v>277.3</v>
       </c>
       <c r="C71" t="n">
-        <v>277.2</v>
+        <v>277.3</v>
       </c>
       <c r="D71" t="n">
-        <v>277.2</v>
+        <v>277.3</v>
       </c>
       <c r="E71" t="n">
-        <v>277.2</v>
+        <v>277.3</v>
       </c>
       <c r="F71" t="n">
-        <v>1812.5418</v>
+        <v>2293.7432</v>
       </c>
       <c r="G71" t="n">
-        <v>281.2266666666666</v>
+        <v>281.3499999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>277</v>
+        <v>277.2</v>
       </c>
       <c r="C72" t="n">
-        <v>276.9</v>
+        <v>277.2</v>
       </c>
       <c r="D72" t="n">
-        <v>277</v>
+        <v>277.2</v>
       </c>
       <c r="E72" t="n">
-        <v>276.9</v>
+        <v>277.2</v>
       </c>
       <c r="F72" t="n">
-        <v>28986.0079364</v>
+        <v>1812.5418</v>
       </c>
       <c r="G72" t="n">
-        <v>281.0983333333333</v>
+        <v>281.2266666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>276.9</v>
+        <v>277</v>
       </c>
       <c r="C73" t="n">
         <v>276.9</v>
       </c>
       <c r="D73" t="n">
-        <v>276.9</v>
+        <v>277</v>
       </c>
       <c r="E73" t="n">
         <v>276.9</v>
       </c>
       <c r="F73" t="n">
-        <v>1166.0104636</v>
+        <v>28986.0079364</v>
       </c>
       <c r="G73" t="n">
-        <v>280.9666666666666</v>
+        <v>281.0983333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>277.5</v>
+        <v>276.9</v>
       </c>
       <c r="C74" t="n">
-        <v>277.5</v>
+        <v>276.9</v>
       </c>
       <c r="D74" t="n">
-        <v>277.5</v>
+        <v>276.9</v>
       </c>
       <c r="E74" t="n">
-        <v>277.5</v>
+        <v>276.9</v>
       </c>
       <c r="F74" t="n">
-        <v>20.01801801</v>
+        <v>1166.0104636</v>
       </c>
       <c r="G74" t="n">
-        <v>280.845</v>
+        <v>280.9666666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>277.5</v>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>20.01801801</v>
       </c>
       <c r="G75" t="n">
-        <v>280.7266666666667</v>
+        <v>280.845</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>277.5</v>
       </c>
       <c r="F76" t="n">
-        <v>3.6301</v>
+        <v>300</v>
       </c>
       <c r="G76" t="n">
-        <v>280.6183333333334</v>
+        <v>280.7266666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>277.5</v>
       </c>
       <c r="F77" t="n">
-        <v>10.0001</v>
+        <v>3.6301</v>
       </c>
       <c r="G77" t="n">
-        <v>280.5416666666667</v>
+        <v>280.6183333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>277.5</v>
       </c>
       <c r="C78" t="n">
-        <v>278.8</v>
+        <v>277.5</v>
       </c>
       <c r="D78" t="n">
-        <v>278.8</v>
+        <v>277.5</v>
       </c>
       <c r="E78" t="n">
         <v>277.5</v>
       </c>
       <c r="F78" t="n">
-        <v>15802.98688199</v>
+        <v>10.0001</v>
       </c>
       <c r="G78" t="n">
-        <v>280.4866666666667</v>
+        <v>280.5416666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>279.7</v>
+        <v>277.5</v>
       </c>
       <c r="C79" t="n">
-        <v>279.6</v>
+        <v>278.8</v>
       </c>
       <c r="D79" t="n">
-        <v>279.7</v>
+        <v>278.8</v>
       </c>
       <c r="E79" t="n">
-        <v>279.6</v>
+        <v>277.5</v>
       </c>
       <c r="F79" t="n">
-        <v>27.80763212</v>
+        <v>15802.98688199</v>
       </c>
       <c r="G79" t="n">
-        <v>280.4183333333334</v>
+        <v>280.4866666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>278.8</v>
+        <v>279.7</v>
       </c>
       <c r="C80" t="n">
-        <v>278.8</v>
+        <v>279.6</v>
       </c>
       <c r="D80" t="n">
-        <v>278.8</v>
+        <v>279.7</v>
       </c>
       <c r="E80" t="n">
-        <v>278.8</v>
+        <v>279.6</v>
       </c>
       <c r="F80" t="n">
-        <v>489.9999</v>
+        <v>27.80763212</v>
       </c>
       <c r="G80" t="n">
-        <v>280.365</v>
+        <v>280.4183333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>278.8</v>
       </c>
       <c r="F81" t="n">
-        <v>619.3423</v>
+        <v>489.9999</v>
       </c>
       <c r="G81" t="n">
-        <v>280.3116666666667</v>
+        <v>280.365</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>278.8</v>
       </c>
       <c r="F82" t="n">
-        <v>1.801e-05</v>
+        <v>619.3423</v>
       </c>
       <c r="G82" t="n">
-        <v>280.2666666666667</v>
+        <v>280.3116666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>278.7</v>
+        <v>278.8</v>
       </c>
       <c r="C83" t="n">
-        <v>278.7</v>
+        <v>278.8</v>
       </c>
       <c r="D83" t="n">
         <v>278.8</v>
       </c>
       <c r="E83" t="n">
-        <v>278.7</v>
+        <v>278.8</v>
       </c>
       <c r="F83" t="n">
-        <v>24232.49658199</v>
+        <v>1.801e-05</v>
       </c>
       <c r="G83" t="n">
-        <v>280.22</v>
+        <v>280.2666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>278.7</v>
       </c>
       <c r="D84" t="n">
-        <v>278.7</v>
+        <v>278.8</v>
       </c>
       <c r="E84" t="n">
         <v>278.7</v>
       </c>
       <c r="F84" t="n">
-        <v>810.0937</v>
+        <v>24232.49658199</v>
       </c>
       <c r="G84" t="n">
-        <v>280.1516666666667</v>
+        <v>280.22</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>278.7</v>
       </c>
       <c r="F85" t="n">
-        <v>1417.4534</v>
+        <v>810.0937</v>
       </c>
       <c r="G85" t="n">
-        <v>280.1033333333334</v>
+        <v>280.1516666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>280.3</v>
+        <v>278.7</v>
       </c>
       <c r="C86" t="n">
         <v>278.7</v>
       </c>
       <c r="D86" t="n">
-        <v>280.3</v>
+        <v>278.7</v>
       </c>
       <c r="E86" t="n">
         <v>278.7</v>
       </c>
       <c r="F86" t="n">
-        <v>2055.33815208</v>
+        <v>1417.4534</v>
       </c>
       <c r="G86" t="n">
-        <v>280.0516666666668</v>
+        <v>280.1033333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>280.5</v>
+        <v>280.3</v>
       </c>
       <c r="C87" t="n">
-        <v>280.7</v>
+        <v>278.7</v>
       </c>
       <c r="D87" t="n">
-        <v>281</v>
+        <v>280.3</v>
       </c>
       <c r="E87" t="n">
-        <v>280.5</v>
+        <v>278.7</v>
       </c>
       <c r="F87" t="n">
-        <v>10232.6593</v>
+        <v>2055.33815208</v>
       </c>
       <c r="G87" t="n">
-        <v>280.0466666666668</v>
+        <v>280.0516666666668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>280.9</v>
+        <v>280.5</v>
       </c>
       <c r="C88" t="n">
-        <v>280.9</v>
+        <v>280.7</v>
       </c>
       <c r="D88" t="n">
-        <v>280.9</v>
+        <v>281</v>
       </c>
       <c r="E88" t="n">
-        <v>280.9</v>
+        <v>280.5</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>10232.6593</v>
       </c>
       <c r="G88" t="n">
-        <v>280.0166666666668</v>
+        <v>280.0466666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>281.4</v>
+        <v>280.9</v>
       </c>
       <c r="C89" t="n">
-        <v>281.4</v>
+        <v>280.9</v>
       </c>
       <c r="D89" t="n">
-        <v>281.4</v>
+        <v>280.9</v>
       </c>
       <c r="E89" t="n">
-        <v>281.4</v>
+        <v>280.9</v>
       </c>
       <c r="F89" t="n">
-        <v>7213.4202</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>280.0233333333335</v>
+        <v>280.0166666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>281.4</v>
       </c>
       <c r="F90" t="n">
-        <v>5410.0651</v>
+        <v>7213.4202</v>
       </c>
       <c r="G90" t="n">
-        <v>280.0300000000001</v>
+        <v>280.0233333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>281.4</v>
       </c>
       <c r="F91" t="n">
-        <v>10942.8796</v>
+        <v>5410.0651</v>
       </c>
       <c r="G91" t="n">
-        <v>280.0433333333336</v>
+        <v>280.0300000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>279.9</v>
+        <v>281.4</v>
       </c>
       <c r="C92" t="n">
-        <v>279.1</v>
+        <v>281.4</v>
       </c>
       <c r="D92" t="n">
-        <v>279.9</v>
+        <v>281.4</v>
       </c>
       <c r="E92" t="n">
-        <v>279.1</v>
+        <v>281.4</v>
       </c>
       <c r="F92" t="n">
-        <v>2014.9025</v>
+        <v>10942.8796</v>
       </c>
       <c r="G92" t="n">
-        <v>279.9983333333336</v>
+        <v>280.0433333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>279.1</v>
+        <v>279.9</v>
       </c>
       <c r="C93" t="n">
         <v>279.1</v>
       </c>
       <c r="D93" t="n">
-        <v>279.1</v>
+        <v>279.9</v>
       </c>
       <c r="E93" t="n">
         <v>279.1</v>
       </c>
       <c r="F93" t="n">
-        <v>4812.4851</v>
+        <v>2014.9025</v>
       </c>
       <c r="G93" t="n">
-        <v>279.9900000000002</v>
+        <v>279.9983333333336</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>279.1</v>
       </c>
       <c r="C94" t="n">
-        <v>278.9</v>
+        <v>279.1</v>
       </c>
       <c r="D94" t="n">
         <v>279.1</v>
       </c>
       <c r="E94" t="n">
-        <v>278.9</v>
+        <v>279.1</v>
       </c>
       <c r="F94" t="n">
-        <v>1985.9816</v>
+        <v>4812.4851</v>
       </c>
       <c r="G94" t="n">
-        <v>279.9550000000002</v>
+        <v>279.9900000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>279.1</v>
       </c>
       <c r="C95" t="n">
-        <v>279.1</v>
+        <v>278.9</v>
       </c>
       <c r="D95" t="n">
         <v>279.1</v>
       </c>
       <c r="E95" t="n">
-        <v>279.1</v>
+        <v>278.9</v>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>1985.9816</v>
       </c>
       <c r="G95" t="n">
-        <v>279.9066666666669</v>
+        <v>279.9550000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>280.7</v>
+        <v>279.1</v>
       </c>
       <c r="C96" t="n">
-        <v>280.7</v>
+        <v>279.1</v>
       </c>
       <c r="D96" t="n">
-        <v>280.7</v>
+        <v>279.1</v>
       </c>
       <c r="E96" t="n">
-        <v>280.7</v>
+        <v>279.1</v>
       </c>
       <c r="F96" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G96" t="n">
-        <v>279.8816666666669</v>
+        <v>279.9066666666669</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="C97" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="D97" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="E97" t="n">
-        <v>280.4</v>
+        <v>280.7</v>
       </c>
       <c r="F97" t="n">
-        <v>18881.9291</v>
+        <v>207</v>
       </c>
       <c r="G97" t="n">
-        <v>279.8566666666669</v>
+        <v>279.8816666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>280.4</v>
       </c>
       <c r="F98" t="n">
-        <v>659.1639</v>
+        <v>18881.9291</v>
       </c>
       <c r="G98" t="n">
-        <v>279.8316666666669</v>
+        <v>279.8566666666669</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>280.4</v>
       </c>
       <c r="F99" t="n">
-        <v>42.8832</v>
+        <v>659.1639</v>
       </c>
       <c r="G99" t="n">
-        <v>279.7883333333336</v>
+        <v>279.8316666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>280.4</v>
       </c>
       <c r="F100" t="n">
-        <v>220.9462</v>
+        <v>42.8832</v>
       </c>
       <c r="G100" t="n">
-        <v>279.7433333333336</v>
+        <v>279.7883333333336</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>280.4</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>220.9462</v>
       </c>
       <c r="G101" t="n">
-        <v>279.7000000000003</v>
+        <v>279.7433333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>280.4</v>
       </c>
       <c r="F102" t="n">
-        <v>17761.4493</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>279.6733333333337</v>
+        <v>279.7000000000003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>279.9</v>
+        <v>280.4</v>
       </c>
       <c r="C103" t="n">
-        <v>279.9</v>
+        <v>280.4</v>
       </c>
       <c r="D103" t="n">
-        <v>279.9</v>
+        <v>280.4</v>
       </c>
       <c r="E103" t="n">
-        <v>279.9</v>
+        <v>280.4</v>
       </c>
       <c r="F103" t="n">
-        <v>11835.8574</v>
+        <v>17761.4493</v>
       </c>
       <c r="G103" t="n">
-        <v>279.6383333333337</v>
+        <v>279.6733333333337</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>280.4</v>
+        <v>279.9</v>
       </c>
       <c r="C104" t="n">
-        <v>280.4</v>
+        <v>279.9</v>
       </c>
       <c r="D104" t="n">
-        <v>280.4</v>
+        <v>279.9</v>
       </c>
       <c r="E104" t="n">
-        <v>280.4</v>
+        <v>279.9</v>
       </c>
       <c r="F104" t="n">
-        <v>6000</v>
+        <v>11835.8574</v>
       </c>
       <c r="G104" t="n">
-        <v>279.5950000000004</v>
+        <v>279.6383333333337</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>280.4</v>
       </c>
       <c r="F105" t="n">
-        <v>2408.9394</v>
+        <v>6000</v>
       </c>
       <c r="G105" t="n">
-        <v>279.5616666666671</v>
+        <v>279.5950000000004</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>280.4</v>
       </c>
       <c r="F106" t="n">
-        <v>5336.1585</v>
+        <v>2408.9394</v>
       </c>
       <c r="G106" t="n">
-        <v>279.5283333333337</v>
+        <v>279.5616666666671</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>280.4</v>
       </c>
       <c r="F107" t="n">
-        <v>16288.0885</v>
+        <v>5336.1585</v>
       </c>
       <c r="G107" t="n">
-        <v>279.4950000000004</v>
+        <v>279.5283333333337</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>279.6</v>
+        <v>280.4</v>
       </c>
       <c r="C108" t="n">
-        <v>279.5</v>
+        <v>280.4</v>
       </c>
       <c r="D108" t="n">
-        <v>279.6</v>
+        <v>280.4</v>
       </c>
       <c r="E108" t="n">
-        <v>279.5</v>
+        <v>280.4</v>
       </c>
       <c r="F108" t="n">
-        <v>6380.7071</v>
+        <v>16288.0885</v>
       </c>
       <c r="G108" t="n">
-        <v>279.446666666667</v>
+        <v>279.4950000000004</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>280.1</v>
+        <v>279.6</v>
       </c>
       <c r="C109" t="n">
-        <v>280</v>
+        <v>279.5</v>
       </c>
       <c r="D109" t="n">
-        <v>280.1</v>
+        <v>279.6</v>
       </c>
       <c r="E109" t="n">
-        <v>280</v>
+        <v>279.5</v>
       </c>
       <c r="F109" t="n">
-        <v>1453.949</v>
+        <v>6380.7071</v>
       </c>
       <c r="G109" t="n">
-        <v>279.406666666667</v>
+        <v>279.446666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>280</v>
+        <v>280.1</v>
       </c>
       <c r="C110" t="n">
         <v>280</v>
       </c>
       <c r="D110" t="n">
-        <v>280</v>
+        <v>280.1</v>
       </c>
       <c r="E110" t="n">
         <v>280</v>
       </c>
       <c r="F110" t="n">
-        <v>595.2320999999999</v>
+        <v>1453.949</v>
       </c>
       <c r="G110" t="n">
-        <v>279.366666666667</v>
+        <v>279.406666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>280</v>
       </c>
       <c r="C111" t="n">
-        <v>279.5</v>
+        <v>280</v>
       </c>
       <c r="D111" t="n">
         <v>280</v>
       </c>
       <c r="E111" t="n">
-        <v>279.5</v>
+        <v>280</v>
       </c>
       <c r="F111" t="n">
-        <v>5000</v>
+        <v>595.2320999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>279.3216666666669</v>
+        <v>279.366666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>279.5</v>
+        <v>280</v>
       </c>
       <c r="C112" t="n">
         <v>279.5</v>
       </c>
       <c r="D112" t="n">
-        <v>279.5</v>
+        <v>280</v>
       </c>
       <c r="E112" t="n">
         <v>279.5</v>
       </c>
       <c r="F112" t="n">
-        <v>989.8678</v>
+        <v>5000</v>
       </c>
       <c r="G112" t="n">
-        <v>279.2900000000002</v>
+        <v>279.3216666666669</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>280.1</v>
+        <v>279.5</v>
       </c>
       <c r="C113" t="n">
-        <v>280.1</v>
+        <v>279.5</v>
       </c>
       <c r="D113" t="n">
-        <v>280.1</v>
+        <v>279.5</v>
       </c>
       <c r="E113" t="n">
-        <v>280.1</v>
+        <v>279.5</v>
       </c>
       <c r="F113" t="n">
-        <v>23.4023563</v>
+        <v>989.8678</v>
       </c>
       <c r="G113" t="n">
-        <v>279.2683333333335</v>
+        <v>279.2900000000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>279.5</v>
+        <v>280.1</v>
       </c>
       <c r="C114" t="n">
-        <v>279.5</v>
+        <v>280.1</v>
       </c>
       <c r="D114" t="n">
-        <v>279.5</v>
+        <v>280.1</v>
       </c>
       <c r="E114" t="n">
-        <v>279.5</v>
+        <v>280.1</v>
       </c>
       <c r="F114" t="n">
-        <v>132.8</v>
+        <v>23.4023563</v>
       </c>
       <c r="G114" t="n">
-        <v>279.2400000000002</v>
+        <v>279.2683333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>279.5</v>
       </c>
       <c r="F115" t="n">
-        <v>1704.6699</v>
+        <v>132.8</v>
       </c>
       <c r="G115" t="n">
-        <v>279.2150000000002</v>
+        <v>279.2400000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>279.5</v>
       </c>
       <c r="F116" t="n">
-        <v>180.3231</v>
+        <v>1704.6699</v>
       </c>
       <c r="G116" t="n">
-        <v>279.1900000000002</v>
+        <v>279.2150000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>279.5</v>
       </c>
       <c r="F117" t="n">
-        <v>10000</v>
+        <v>180.3231</v>
       </c>
       <c r="G117" t="n">
-        <v>279.1650000000002</v>
+        <v>279.1900000000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +4496,19 @@
         <v>279.5</v>
       </c>
       <c r="C118" t="n">
-        <v>279.2</v>
+        <v>279.5</v>
       </c>
       <c r="D118" t="n">
         <v>279.5</v>
       </c>
       <c r="E118" t="n">
-        <v>279.2</v>
+        <v>279.5</v>
       </c>
       <c r="F118" t="n">
-        <v>6354.3252</v>
+        <v>10000</v>
       </c>
       <c r="G118" t="n">
-        <v>279.1833333333336</v>
+        <v>279.1650000000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>279.1</v>
+        <v>279.5</v>
       </c>
       <c r="C119" t="n">
-        <v>279.1</v>
+        <v>279.2</v>
       </c>
       <c r="D119" t="n">
-        <v>279.1</v>
+        <v>279.5</v>
       </c>
       <c r="E119" t="n">
-        <v>279.1</v>
+        <v>279.2</v>
       </c>
       <c r="F119" t="n">
-        <v>2620.7757</v>
+        <v>6354.3252</v>
       </c>
       <c r="G119" t="n">
-        <v>279.1616666666669</v>
+        <v>279.1833333333336</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>279.1</v>
       </c>
       <c r="F120" t="n">
-        <v>881.2243</v>
+        <v>2620.7757</v>
       </c>
       <c r="G120" t="n">
-        <v>279.1633333333335</v>
+        <v>279.1616666666669</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>278.7</v>
+        <v>279.1</v>
       </c>
       <c r="C121" t="n">
-        <v>278.7</v>
+        <v>279.1</v>
       </c>
       <c r="D121" t="n">
-        <v>278.7</v>
+        <v>279.1</v>
       </c>
       <c r="E121" t="n">
-        <v>278.7</v>
+        <v>279.1</v>
       </c>
       <c r="F121" t="n">
-        <v>18978.59911801</v>
+        <v>881.2243</v>
       </c>
       <c r="G121" t="n">
-        <v>279.1583333333335</v>
+        <v>279.1633333333335</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>278.7</v>
       </c>
       <c r="F122" t="n">
-        <v>5</v>
+        <v>18978.59911801</v>
       </c>
       <c r="G122" t="n">
-        <v>279.1683333333336</v>
+        <v>279.1583333333335</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>278.3</v>
+        <v>278.7</v>
       </c>
       <c r="C123" t="n">
-        <v>278.1</v>
+        <v>278.7</v>
       </c>
       <c r="D123" t="n">
-        <v>278.3</v>
+        <v>278.7</v>
       </c>
       <c r="E123" t="n">
-        <v>278.1</v>
+        <v>278.7</v>
       </c>
       <c r="F123" t="n">
-        <v>2048.3052</v>
+        <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>279.1533333333335</v>
+        <v>279.1683333333336</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,19 +4703,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>278.1</v>
+        <v>278.3</v>
       </c>
       <c r="C124" t="n">
         <v>278.1</v>
       </c>
       <c r="D124" t="n">
-        <v>278.1</v>
+        <v>278.3</v>
       </c>
       <c r="E124" t="n">
         <v>278.1</v>
       </c>
       <c r="F124" t="n">
-        <v>1746.2928</v>
+        <v>2048.3052</v>
       </c>
       <c r="G124" t="n">
         <v>279.1533333333335</v>
@@ -4750,10 +4750,10 @@
         <v>278.1</v>
       </c>
       <c r="F125" t="n">
-        <v>1008.5542</v>
+        <v>1746.2928</v>
       </c>
       <c r="G125" t="n">
-        <v>279.1633333333335</v>
+        <v>279.1533333333335</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,19 +4773,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>277.5</v>
+        <v>278.1</v>
       </c>
       <c r="C126" t="n">
-        <v>277.5</v>
+        <v>278.1</v>
       </c>
       <c r="D126" t="n">
-        <v>277.5</v>
+        <v>278.1</v>
       </c>
       <c r="E126" t="n">
-        <v>277.5</v>
+        <v>278.1</v>
       </c>
       <c r="F126" t="n">
-        <v>1941.2299</v>
+        <v>1008.5542</v>
       </c>
       <c r="G126" t="n">
         <v>279.1633333333335</v>
@@ -4820,10 +4820,10 @@
         <v>277.5</v>
       </c>
       <c r="F127" t="n">
-        <v>1452.8337</v>
+        <v>1941.2299</v>
       </c>
       <c r="G127" t="n">
-        <v>279.1666666666669</v>
+        <v>279.1633333333335</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>278.4</v>
+        <v>277.5</v>
       </c>
       <c r="C128" t="n">
-        <v>278.4</v>
+        <v>277.5</v>
       </c>
       <c r="D128" t="n">
-        <v>278.4</v>
+        <v>277.5</v>
       </c>
       <c r="E128" t="n">
-        <v>278.4</v>
+        <v>277.5</v>
       </c>
       <c r="F128" t="n">
-        <v>1059</v>
+        <v>1452.8337</v>
       </c>
       <c r="G128" t="n">
-        <v>279.1850000000002</v>
+        <v>279.1666666666669</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>278.4</v>
       </c>
       <c r="F129" t="n">
-        <v>1547.4811</v>
+        <v>1059</v>
       </c>
       <c r="G129" t="n">
-        <v>279.2000000000002</v>
+        <v>279.1850000000002</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +4916,19 @@
         <v>278.4</v>
       </c>
       <c r="C130" t="n">
-        <v>277.5</v>
+        <v>278.4</v>
       </c>
       <c r="D130" t="n">
         <v>278.4</v>
       </c>
       <c r="E130" t="n">
-        <v>277.5</v>
+        <v>278.4</v>
       </c>
       <c r="F130" t="n">
-        <v>2278.0269</v>
+        <v>1547.4811</v>
       </c>
       <c r="G130" t="n">
-        <v>279.2033333333336</v>
+        <v>279.2000000000002</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>277.5</v>
+        <v>278.4</v>
       </c>
       <c r="C131" t="n">
         <v>277.5</v>
       </c>
       <c r="D131" t="n">
-        <v>277.5</v>
+        <v>278.4</v>
       </c>
       <c r="E131" t="n">
         <v>277.5</v>
       </c>
       <c r="F131" t="n">
-        <v>2408.9394</v>
+        <v>2278.0269</v>
       </c>
       <c r="G131" t="n">
-        <v>279.2083333333336</v>
+        <v>279.2033333333336</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +4986,19 @@
         <v>277.5</v>
       </c>
       <c r="C132" t="n">
-        <v>277.4</v>
+        <v>277.5</v>
       </c>
       <c r="D132" t="n">
         <v>277.5</v>
       </c>
       <c r="E132" t="n">
-        <v>277.4</v>
+        <v>277.5</v>
       </c>
       <c r="F132" t="n">
-        <v>4946.3665</v>
+        <v>2408.9394</v>
       </c>
       <c r="G132" t="n">
-        <v>279.2166666666669</v>
+        <v>279.2083333333336</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="C133" t="n">
         <v>277.4</v>
       </c>
-      <c r="C133" t="n">
-        <v>277.2</v>
-      </c>
       <c r="D133" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="E133" t="n">
         <v>277.4</v>
       </c>
-      <c r="E133" t="n">
-        <v>277.2</v>
-      </c>
       <c r="F133" t="n">
-        <v>13995.1714</v>
+        <v>4946.3665</v>
       </c>
       <c r="G133" t="n">
-        <v>279.2216666666669</v>
+        <v>279.2166666666669</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>278.7</v>
+        <v>277.4</v>
       </c>
       <c r="C134" t="n">
-        <v>278.8</v>
+        <v>277.2</v>
       </c>
       <c r="D134" t="n">
-        <v>278.8</v>
+        <v>277.4</v>
       </c>
       <c r="E134" t="n">
-        <v>278.7</v>
+        <v>277.2</v>
       </c>
       <c r="F134" t="n">
-        <v>100</v>
+        <v>13995.1714</v>
       </c>
       <c r="G134" t="n">
-        <v>279.2433333333336</v>
+        <v>279.2216666666669</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>278</v>
+        <v>278.7</v>
       </c>
       <c r="C135" t="n">
-        <v>278</v>
+        <v>278.8</v>
       </c>
       <c r="D135" t="n">
-        <v>278</v>
+        <v>278.8</v>
       </c>
       <c r="E135" t="n">
-        <v>278</v>
+        <v>278.7</v>
       </c>
       <c r="F135" t="n">
-        <v>2290.7027</v>
+        <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>279.2516666666669</v>
+        <v>279.2433333333336</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>277.5</v>
+        <v>278</v>
       </c>
       <c r="C136" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D136" t="n">
-        <v>277.5</v>
+        <v>278</v>
       </c>
       <c r="E136" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F136" t="n">
-        <v>3148.7862</v>
+        <v>2290.7027</v>
       </c>
       <c r="G136" t="n">
-        <v>279.2433333333336</v>
+        <v>279.2516666666669</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>278</v>
+        <v>277.5</v>
       </c>
       <c r="C137" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D137" t="n">
-        <v>278</v>
+        <v>277.5</v>
       </c>
       <c r="E137" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F137" t="n">
-        <v>26</v>
+        <v>3148.7862</v>
       </c>
       <c r="G137" t="n">
-        <v>279.2516666666669</v>
+        <v>279.2433333333336</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>278</v>
       </c>
       <c r="F138" t="n">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="G138" t="n">
-        <v>279.2383333333336</v>
+        <v>279.2516666666669</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>278</v>
       </c>
       <c r="F139" t="n">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="G139" t="n">
-        <v>279.2116666666669</v>
+        <v>279.2383333333336</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>278</v>
       </c>
       <c r="F140" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G140" t="n">
-        <v>279.1983333333336</v>
+        <v>279.2116666666669</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>50</v>
       </c>
       <c r="G141" t="n">
-        <v>279.1850000000003</v>
+        <v>279.1983333333336</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>278</v>
       </c>
       <c r="F142" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G142" t="n">
-        <v>279.171666666667</v>
+        <v>279.1850000000003</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>277.9</v>
+        <v>278</v>
       </c>
       <c r="C143" t="n">
-        <v>277.9</v>
+        <v>278</v>
       </c>
       <c r="D143" t="n">
-        <v>277.9</v>
+        <v>278</v>
       </c>
       <c r="E143" t="n">
-        <v>277.9</v>
+        <v>278</v>
       </c>
       <c r="F143" t="n">
-        <v>2468.9275</v>
+        <v>5</v>
       </c>
       <c r="G143" t="n">
-        <v>279.1583333333336</v>
+        <v>279.171666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>278</v>
+        <v>277.9</v>
       </c>
       <c r="C144" t="n">
-        <v>278</v>
+        <v>277.9</v>
       </c>
       <c r="D144" t="n">
-        <v>278</v>
+        <v>277.9</v>
       </c>
       <c r="E144" t="n">
-        <v>278</v>
+        <v>277.9</v>
       </c>
       <c r="F144" t="n">
-        <v>71.4404</v>
+        <v>2468.9275</v>
       </c>
       <c r="G144" t="n">
-        <v>279.1466666666669</v>
+        <v>279.1583333333336</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>278.6</v>
+        <v>278</v>
       </c>
       <c r="C145" t="n">
         <v>278</v>
       </c>
       <c r="D145" t="n">
-        <v>278.6</v>
+        <v>278</v>
       </c>
       <c r="E145" t="n">
         <v>278</v>
       </c>
       <c r="F145" t="n">
-        <v>1918.3235</v>
+        <v>71.4404</v>
       </c>
       <c r="G145" t="n">
-        <v>279.1350000000003</v>
+        <v>279.1466666666669</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>278</v>
+        <v>278.6</v>
       </c>
       <c r="C146" t="n">
         <v>278</v>
       </c>
       <c r="D146" t="n">
-        <v>278</v>
+        <v>278.6</v>
       </c>
       <c r="E146" t="n">
         <v>278</v>
       </c>
       <c r="F146" t="n">
-        <v>434.76</v>
+        <v>1918.3235</v>
       </c>
       <c r="G146" t="n">
-        <v>279.1233333333336</v>
+        <v>279.1350000000003</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>278.7</v>
+        <v>278</v>
       </c>
       <c r="C147" t="n">
-        <v>278.7</v>
+        <v>278</v>
       </c>
       <c r="D147" t="n">
-        <v>278.7</v>
+        <v>278</v>
       </c>
       <c r="E147" t="n">
-        <v>278.7</v>
+        <v>278</v>
       </c>
       <c r="F147" t="n">
-        <v>15.94546106</v>
+        <v>434.76</v>
       </c>
       <c r="G147" t="n">
-        <v>279.0900000000003</v>
+        <v>279.1233333333336</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,7 +5543,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>278.6</v>
+        <v>278.7</v>
       </c>
       <c r="C148" t="n">
         <v>278.7</v>
@@ -5552,13 +5552,13 @@
         <v>278.7</v>
       </c>
       <c r="E148" t="n">
-        <v>278.6</v>
+        <v>278.7</v>
       </c>
       <c r="F148" t="n">
-        <v>3575.5876</v>
+        <v>15.94546106</v>
       </c>
       <c r="G148" t="n">
-        <v>279.0533333333336</v>
+        <v>279.0900000000003</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5581,19 +5581,19 @@
         <v>278.6</v>
       </c>
       <c r="C149" t="n">
-        <v>278.5</v>
+        <v>278.7</v>
       </c>
       <c r="D149" t="n">
+        <v>278.7</v>
+      </c>
+      <c r="E149" t="n">
         <v>278.6</v>
       </c>
-      <c r="E149" t="n">
-        <v>278.5</v>
-      </c>
       <c r="F149" t="n">
-        <v>145.8367</v>
+        <v>3575.5876</v>
       </c>
       <c r="G149" t="n">
-        <v>279.0050000000002</v>
+        <v>279.0533333333336</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>278.7</v>
+        <v>278.6</v>
       </c>
       <c r="C150" t="n">
-        <v>278.7</v>
+        <v>278.5</v>
       </c>
       <c r="D150" t="n">
-        <v>278.7</v>
+        <v>278.6</v>
       </c>
       <c r="E150" t="n">
-        <v>278.7</v>
+        <v>278.5</v>
       </c>
       <c r="F150" t="n">
-        <v>3002.81703894</v>
+        <v>145.8367</v>
       </c>
       <c r="G150" t="n">
-        <v>278.9600000000002</v>
+        <v>279.0050000000002</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>278.9</v>
+        <v>278.7</v>
       </c>
       <c r="C151" t="n">
-        <v>278.9</v>
+        <v>278.7</v>
       </c>
       <c r="D151" t="n">
-        <v>278.9</v>
+        <v>278.7</v>
       </c>
       <c r="E151" t="n">
-        <v>278.9</v>
+        <v>278.7</v>
       </c>
       <c r="F151" t="n">
-        <v>910.2028</v>
+        <v>3002.81703894</v>
       </c>
       <c r="G151" t="n">
-        <v>278.9183333333336</v>
+        <v>278.9600000000002</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>278</v>
+        <v>278.9</v>
       </c>
       <c r="C152" t="n">
-        <v>278</v>
+        <v>278.9</v>
       </c>
       <c r="D152" t="n">
-        <v>278</v>
+        <v>278.9</v>
       </c>
       <c r="E152" t="n">
-        <v>278</v>
+        <v>278.9</v>
       </c>
       <c r="F152" t="n">
-        <v>1023.9999</v>
+        <v>910.2028</v>
       </c>
       <c r="G152" t="n">
-        <v>278.9000000000003</v>
+        <v>278.9183333333336</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C153" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D153" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E153" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F153" t="n">
-        <v>1612.122</v>
+        <v>1023.9999</v>
       </c>
       <c r="G153" t="n">
-        <v>278.8983333333336</v>
+        <v>278.9000000000003</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C154" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D154" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E154" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F154" t="n">
-        <v>877.1227</v>
+        <v>1612.122</v>
       </c>
       <c r="G154" t="n">
-        <v>278.8833333333336</v>
+        <v>278.8983333333336</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>278</v>
       </c>
       <c r="F155" t="n">
-        <v>202.9</v>
+        <v>877.1227</v>
       </c>
       <c r="G155" t="n">
-        <v>278.8650000000003</v>
+        <v>278.8833333333336</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>278</v>
       </c>
       <c r="F156" t="n">
-        <v>4223.3836</v>
+        <v>202.9</v>
       </c>
       <c r="G156" t="n">
-        <v>278.8200000000003</v>
+        <v>278.8650000000003</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>277.9</v>
+        <v>278</v>
       </c>
       <c r="C157" t="n">
-        <v>277.9</v>
+        <v>278</v>
       </c>
       <c r="D157" t="n">
-        <v>277.9</v>
+        <v>278</v>
       </c>
       <c r="E157" t="n">
-        <v>277.9</v>
+        <v>278</v>
       </c>
       <c r="F157" t="n">
-        <v>100</v>
+        <v>4223.3836</v>
       </c>
       <c r="G157" t="n">
-        <v>278.7783333333336</v>
+        <v>278.8200000000003</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>279</v>
+        <v>277.9</v>
       </c>
       <c r="C158" t="n">
-        <v>277</v>
+        <v>277.9</v>
       </c>
       <c r="D158" t="n">
-        <v>279</v>
+        <v>277.9</v>
       </c>
       <c r="E158" t="n">
-        <v>277</v>
+        <v>277.9</v>
       </c>
       <c r="F158" t="n">
-        <v>6941.1665</v>
+        <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>278.7216666666669</v>
+        <v>278.7783333333336</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>278.9</v>
+        <v>279</v>
       </c>
       <c r="C159" t="n">
-        <v>278.9</v>
+        <v>277</v>
       </c>
       <c r="D159" t="n">
-        <v>278.9</v>
+        <v>279</v>
       </c>
       <c r="E159" t="n">
-        <v>278.9</v>
+        <v>277</v>
       </c>
       <c r="F159" t="n">
-        <v>886.1393</v>
+        <v>6941.1665</v>
       </c>
       <c r="G159" t="n">
-        <v>278.6966666666669</v>
+        <v>278.7216666666669</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>278.8</v>
+        <v>278.9</v>
       </c>
       <c r="C160" t="n">
-        <v>279</v>
+        <v>278.9</v>
       </c>
       <c r="D160" t="n">
-        <v>279</v>
+        <v>278.9</v>
       </c>
       <c r="E160" t="n">
-        <v>278.8</v>
+        <v>278.9</v>
       </c>
       <c r="F160" t="n">
-        <v>50010.6533</v>
+        <v>886.1393</v>
       </c>
       <c r="G160" t="n">
-        <v>278.6733333333335</v>
+        <v>278.6966666666669</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>278</v>
+        <v>278.8</v>
       </c>
       <c r="C161" t="n">
         <v>279</v>
@@ -6007,13 +6007,13 @@
         <v>279</v>
       </c>
       <c r="E161" t="n">
-        <v>278</v>
+        <v>278.8</v>
       </c>
       <c r="F161" t="n">
-        <v>702</v>
+        <v>50010.6533</v>
       </c>
       <c r="G161" t="n">
-        <v>278.6500000000002</v>
+        <v>278.6733333333335</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C162" t="n">
         <v>279</v>
@@ -6042,13 +6042,13 @@
         <v>279</v>
       </c>
       <c r="E162" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F162" t="n">
-        <v>7100.0066</v>
+        <v>702</v>
       </c>
       <c r="G162" t="n">
-        <v>278.6266666666668</v>
+        <v>278.6500000000002</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>279</v>
       </c>
       <c r="F163" t="n">
-        <v>598.2992</v>
+        <v>7100.0066</v>
       </c>
       <c r="G163" t="n">
-        <v>278.6116666666668</v>
+        <v>278.6266666666668</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>279</v>
       </c>
       <c r="F164" t="n">
-        <v>3575.2897</v>
+        <v>598.2992</v>
       </c>
       <c r="G164" t="n">
-        <v>278.5883333333334</v>
+        <v>278.6116666666668</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>279</v>
       </c>
       <c r="F165" t="n">
-        <v>134.442</v>
+        <v>3575.2897</v>
       </c>
       <c r="G165" t="n">
-        <v>278.5650000000001</v>
+        <v>278.5883333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>279</v>
       </c>
       <c r="F166" t="n">
-        <v>844.2532</v>
+        <v>134.442</v>
       </c>
       <c r="G166" t="n">
-        <v>278.5416666666667</v>
+        <v>278.5650000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>279</v>
       </c>
       <c r="F167" t="n">
-        <v>1970.47</v>
+        <v>844.2532</v>
       </c>
       <c r="G167" t="n">
-        <v>278.5183333333334</v>
+        <v>278.5416666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6255,10 @@
         <v>279</v>
       </c>
       <c r="F168" t="n">
-        <v>4383.9894</v>
+        <v>1970.47</v>
       </c>
       <c r="G168" t="n">
-        <v>278.51</v>
+        <v>278.5183333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>280.1</v>
+        <v>279</v>
       </c>
       <c r="C169" t="n">
-        <v>280.3</v>
+        <v>279</v>
       </c>
       <c r="D169" t="n">
-        <v>280.3</v>
+        <v>279</v>
       </c>
       <c r="E169" t="n">
-        <v>280.1</v>
+        <v>279</v>
       </c>
       <c r="F169" t="n">
-        <v>2199.5567437</v>
+        <v>4383.9894</v>
       </c>
       <c r="G169" t="n">
-        <v>278.515</v>
+        <v>278.51</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>280.3</v>
+        <v>280.1</v>
       </c>
       <c r="C170" t="n">
         <v>280.3</v>
@@ -6322,13 +6322,13 @@
         <v>280.3</v>
       </c>
       <c r="E170" t="n">
-        <v>280.3</v>
+        <v>280.1</v>
       </c>
       <c r="F170" t="n">
-        <v>400</v>
+        <v>2199.5567437</v>
       </c>
       <c r="G170" t="n">
-        <v>278.52</v>
+        <v>278.515</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>280.2</v>
+        <v>280.3</v>
       </c>
       <c r="C171" t="n">
-        <v>280.2</v>
+        <v>280.3</v>
       </c>
       <c r="D171" t="n">
-        <v>280.2</v>
+        <v>280.3</v>
       </c>
       <c r="E171" t="n">
-        <v>280.2</v>
+        <v>280.3</v>
       </c>
       <c r="F171" t="n">
-        <v>1301.4749</v>
+        <v>400</v>
       </c>
       <c r="G171" t="n">
-        <v>278.5316666666667</v>
+        <v>278.52</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>279.1</v>
+        <v>280.2</v>
       </c>
       <c r="C172" t="n">
-        <v>279.1</v>
+        <v>280.2</v>
       </c>
       <c r="D172" t="n">
-        <v>279.1</v>
+        <v>280.2</v>
       </c>
       <c r="E172" t="n">
-        <v>279.1</v>
+        <v>280.2</v>
       </c>
       <c r="F172" t="n">
-        <v>519.5647</v>
+        <v>1301.4749</v>
       </c>
       <c r="G172" t="n">
-        <v>278.525</v>
+        <v>278.5316666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>279.1</v>
       </c>
       <c r="F173" t="n">
-        <v>1326.6303</v>
+        <v>519.5647</v>
       </c>
       <c r="G173" t="n">
-        <v>278.5083333333333</v>
+        <v>278.525</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>280.7</v>
+        <v>279.1</v>
       </c>
       <c r="C174" t="n">
-        <v>280.7</v>
+        <v>279.1</v>
       </c>
       <c r="D174" t="n">
-        <v>280.7</v>
+        <v>279.1</v>
       </c>
       <c r="E174" t="n">
-        <v>280.7</v>
+        <v>279.1</v>
       </c>
       <c r="F174" t="n">
-        <v>3000</v>
+        <v>1326.6303</v>
       </c>
       <c r="G174" t="n">
-        <v>278.5283333333334</v>
+        <v>278.5083333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,19 +6491,19 @@
         <v>280.7</v>
       </c>
       <c r="C175" t="n">
-        <v>280.1</v>
+        <v>280.7</v>
       </c>
       <c r="D175" t="n">
         <v>280.7</v>
       </c>
       <c r="E175" t="n">
-        <v>280.1</v>
+        <v>280.7</v>
       </c>
       <c r="F175" t="n">
-        <v>1714.4658</v>
+        <v>3000</v>
       </c>
       <c r="G175" t="n">
-        <v>278.5383333333333</v>
+        <v>278.5283333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6526,19 +6526,19 @@
         <v>280.7</v>
       </c>
       <c r="C176" t="n">
-        <v>280.7</v>
+        <v>280.1</v>
       </c>
       <c r="D176" t="n">
         <v>280.7</v>
       </c>
       <c r="E176" t="n">
-        <v>280.7</v>
+        <v>280.1</v>
       </c>
       <c r="F176" t="n">
-        <v>534.3216</v>
+        <v>1714.4658</v>
       </c>
       <c r="G176" t="n">
-        <v>278.5583333333333</v>
+        <v>278.5383333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
         <v>280.7</v>
       </c>
       <c r="F177" t="n">
-        <v>128.8399</v>
+        <v>534.3216</v>
       </c>
       <c r="G177" t="n">
-        <v>278.5783333333333</v>
+        <v>278.5583333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6596,19 +6596,19 @@
         <v>280.7</v>
       </c>
       <c r="C178" t="n">
-        <v>280.6</v>
+        <v>280.7</v>
       </c>
       <c r="D178" t="n">
         <v>280.7</v>
       </c>
       <c r="E178" t="n">
-        <v>280.6</v>
+        <v>280.7</v>
       </c>
       <c r="F178" t="n">
-        <v>1041.065</v>
+        <v>128.8399</v>
       </c>
       <c r="G178" t="n">
-        <v>278.6016666666666</v>
+        <v>278.5783333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>280.5</v>
+        <v>280.7</v>
       </c>
       <c r="C179" t="n">
-        <v>280</v>
+        <v>280.6</v>
       </c>
       <c r="D179" t="n">
-        <v>280.5</v>
+        <v>280.7</v>
       </c>
       <c r="E179" t="n">
-        <v>280</v>
+        <v>280.6</v>
       </c>
       <c r="F179" t="n">
-        <v>2232.1347</v>
+        <v>1041.065</v>
       </c>
       <c r="G179" t="n">
-        <v>278.6166666666667</v>
+        <v>278.6016666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>280.4</v>
+        <v>280.5</v>
       </c>
       <c r="C180" t="n">
-        <v>280.4</v>
+        <v>280</v>
       </c>
       <c r="D180" t="n">
-        <v>280.4</v>
+        <v>280.5</v>
       </c>
       <c r="E180" t="n">
-        <v>280.4</v>
+        <v>280</v>
       </c>
       <c r="F180" t="n">
-        <v>3557.4402</v>
+        <v>2232.1347</v>
       </c>
       <c r="G180" t="n">
-        <v>278.6383333333334</v>
+        <v>278.6166666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>280.1</v>
+        <v>280.4</v>
       </c>
       <c r="C181" t="n">
-        <v>280.1</v>
+        <v>280.4</v>
       </c>
       <c r="D181" t="n">
-        <v>280.1</v>
+        <v>280.4</v>
       </c>
       <c r="E181" t="n">
-        <v>280.1</v>
+        <v>280.4</v>
       </c>
       <c r="F181" t="n">
-        <v>3557.4</v>
+        <v>3557.4402</v>
       </c>
       <c r="G181" t="n">
-        <v>278.6616666666667</v>
+        <v>278.6383333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +6745,10 @@
         <v>280.1</v>
       </c>
       <c r="F182" t="n">
-        <v>13911.9276</v>
+        <v>3557.4</v>
       </c>
       <c r="G182" t="n">
-        <v>278.685</v>
+        <v>278.6616666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>280.1</v>
       </c>
       <c r="F183" t="n">
-        <v>530.6724</v>
+        <v>13911.9276</v>
       </c>
       <c r="G183" t="n">
-        <v>278.7183333333333</v>
+        <v>278.685</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>280.1</v>
       </c>
       <c r="F184" t="n">
-        <v>224.9466</v>
+        <v>530.6724</v>
       </c>
       <c r="G184" t="n">
-        <v>278.7516666666667</v>
+        <v>278.7183333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>280</v>
+        <v>280.1</v>
       </c>
       <c r="C185" t="n">
-        <v>280</v>
+        <v>280.1</v>
       </c>
       <c r="D185" t="n">
-        <v>280</v>
+        <v>280.1</v>
       </c>
       <c r="E185" t="n">
-        <v>280</v>
+        <v>280.1</v>
       </c>
       <c r="F185" t="n">
-        <v>127.6934</v>
+        <v>224.9466</v>
       </c>
       <c r="G185" t="n">
-        <v>278.7833333333334</v>
+        <v>278.7516666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6885,10 +6885,10 @@
         <v>280</v>
       </c>
       <c r="F186" t="n">
-        <v>344</v>
+        <v>127.6934</v>
       </c>
       <c r="G186" t="n">
-        <v>278.825</v>
+        <v>278.7833333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6911,19 +6911,19 @@
         <v>280</v>
       </c>
       <c r="C187" t="n">
-        <v>278.1</v>
+        <v>280</v>
       </c>
       <c r="D187" t="n">
         <v>280</v>
       </c>
       <c r="E187" t="n">
-        <v>278.1</v>
+        <v>280</v>
       </c>
       <c r="F187" t="n">
-        <v>6000</v>
+        <v>344</v>
       </c>
       <c r="G187" t="n">
-        <v>278.835</v>
+        <v>278.825</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C188" t="n">
-        <v>278</v>
+        <v>278.1</v>
       </c>
       <c r="D188" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E188" t="n">
-        <v>278</v>
+        <v>278.1</v>
       </c>
       <c r="F188" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G188" t="n">
-        <v>278.8283333333333</v>
+        <v>278.835</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6981,19 +6981,19 @@
         <v>278</v>
       </c>
       <c r="C189" t="n">
-        <v>277.7</v>
+        <v>278</v>
       </c>
       <c r="D189" t="n">
         <v>278</v>
       </c>
       <c r="E189" t="n">
-        <v>277.7</v>
+        <v>278</v>
       </c>
       <c r="F189" t="n">
-        <v>140</v>
+        <v>3000</v>
       </c>
       <c r="G189" t="n">
-        <v>278.8166666666666</v>
+        <v>278.8283333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>277.7</v>
+        <v>278</v>
       </c>
       <c r="C190" t="n">
         <v>277.7</v>
       </c>
       <c r="D190" t="n">
-        <v>277.7</v>
+        <v>278</v>
       </c>
       <c r="E190" t="n">
         <v>277.7</v>
       </c>
       <c r="F190" t="n">
-        <v>773.2</v>
+        <v>140</v>
       </c>
       <c r="G190" t="n">
-        <v>278.8199999999999</v>
+        <v>278.8166666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,19 +7048,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>277.5</v>
+        <v>277.7</v>
       </c>
       <c r="C191" t="n">
-        <v>277.5</v>
+        <v>277.7</v>
       </c>
       <c r="D191" t="n">
-        <v>277.5</v>
+        <v>277.7</v>
       </c>
       <c r="E191" t="n">
-        <v>276.8</v>
+        <v>277.7</v>
       </c>
       <c r="F191" t="n">
-        <v>8042.8969</v>
+        <v>773.2</v>
       </c>
       <c r="G191" t="n">
         <v>278.8199999999999</v>
@@ -7086,19 +7086,19 @@
         <v>277.5</v>
       </c>
       <c r="C192" t="n">
-        <v>276.5</v>
+        <v>277.5</v>
       </c>
       <c r="D192" t="n">
         <v>277.5</v>
       </c>
       <c r="E192" t="n">
-        <v>276.5</v>
+        <v>276.8</v>
       </c>
       <c r="F192" t="n">
-        <v>29309.246</v>
+        <v>8042.8969</v>
       </c>
       <c r="G192" t="n">
-        <v>278.8049999999999</v>
+        <v>278.8199999999999</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>276.3</v>
+        <v>277.5</v>
       </c>
       <c r="C193" t="n">
-        <v>276.3</v>
+        <v>276.5</v>
       </c>
       <c r="D193" t="n">
-        <v>276.3</v>
+        <v>277.5</v>
       </c>
       <c r="E193" t="n">
-        <v>276.3</v>
+        <v>276.5</v>
       </c>
       <c r="F193" t="n">
-        <v>2000</v>
+        <v>29309.246</v>
       </c>
       <c r="G193" t="n">
-        <v>278.7899999999999</v>
+        <v>278.8049999999999</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>276.3</v>
       </c>
       <c r="F194" t="n">
-        <v>917.8602</v>
+        <v>2000</v>
       </c>
       <c r="G194" t="n">
-        <v>278.7483333333332</v>
+        <v>278.7899999999999</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>276</v>
+        <v>276.3</v>
       </c>
       <c r="C195" t="n">
-        <v>276</v>
+        <v>276.3</v>
       </c>
       <c r="D195" t="n">
-        <v>276</v>
+        <v>276.3</v>
       </c>
       <c r="E195" t="n">
-        <v>276</v>
+        <v>276.3</v>
       </c>
       <c r="F195" t="n">
-        <v>2924.6619</v>
+        <v>917.8602</v>
       </c>
       <c r="G195" t="n">
-        <v>278.7149999999999</v>
+        <v>278.7483333333332</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7226,19 +7226,19 @@
         <v>276</v>
       </c>
       <c r="C196" t="n">
-        <v>275.6</v>
+        <v>276</v>
       </c>
       <c r="D196" t="n">
         <v>276</v>
       </c>
       <c r="E196" t="n">
-        <v>275.6</v>
+        <v>276</v>
       </c>
       <c r="F196" t="n">
-        <v>8766.8398</v>
+        <v>2924.6619</v>
       </c>
       <c r="G196" t="n">
-        <v>278.6916666666665</v>
+        <v>278.7149999999999</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>276</v>
+      </c>
+      <c r="C197" t="n">
         <v>275.6</v>
       </c>
-      <c r="C197" t="n">
-        <v>275.1</v>
-      </c>
       <c r="D197" t="n">
+        <v>276</v>
+      </c>
+      <c r="E197" t="n">
         <v>275.6</v>
       </c>
-      <c r="E197" t="n">
-        <v>275.1</v>
-      </c>
       <c r="F197" t="n">
-        <v>12431.0895</v>
+        <v>8766.8398</v>
       </c>
       <c r="G197" t="n">
-        <v>278.6433333333332</v>
+        <v>278.6916666666665</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="C198" t="n">
         <v>275.1</v>
       </c>
-      <c r="C198" t="n">
-        <v>275</v>
-      </c>
       <c r="D198" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="E198" t="n">
         <v>275.1</v>
       </c>
-      <c r="E198" t="n">
-        <v>275</v>
-      </c>
       <c r="F198" t="n">
-        <v>15218.0373</v>
+        <v>12431.0895</v>
       </c>
       <c r="G198" t="n">
-        <v>278.5933333333332</v>
+        <v>278.6433333333332</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7331,19 +7331,19 @@
         <v>275.1</v>
       </c>
       <c r="C199" t="n">
-        <v>275.1</v>
+        <v>275</v>
       </c>
       <c r="D199" t="n">
         <v>275.1</v>
       </c>
       <c r="E199" t="n">
-        <v>275.1</v>
+        <v>275</v>
       </c>
       <c r="F199" t="n">
-        <v>3338.794</v>
+        <v>15218.0373</v>
       </c>
       <c r="G199" t="n">
-        <v>278.5449999999998</v>
+        <v>278.5933333333332</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>275.7</v>
+        <v>275.1</v>
       </c>
       <c r="C200" t="n">
-        <v>275</v>
+        <v>275.1</v>
       </c>
       <c r="D200" t="n">
-        <v>275.7</v>
+        <v>275.1</v>
       </c>
       <c r="E200" t="n">
-        <v>275</v>
+        <v>275.1</v>
       </c>
       <c r="F200" t="n">
-        <v>7289.0799</v>
+        <v>3338.794</v>
       </c>
       <c r="G200" t="n">
-        <v>278.4949999999998</v>
+        <v>278.5449999999998</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>274.7</v>
+        <v>275.7</v>
       </c>
       <c r="C201" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D201" t="n">
-        <v>274.7</v>
+        <v>275.7</v>
       </c>
       <c r="E201" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F201" t="n">
-        <v>1461.3565</v>
+        <v>7289.0799</v>
       </c>
       <c r="G201" t="n">
-        <v>278.4283333333332</v>
+        <v>278.4949999999998</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7436,19 +7436,19 @@
         <v>274.7</v>
       </c>
       <c r="C202" t="n">
-        <v>274.7</v>
+        <v>274</v>
       </c>
       <c r="D202" t="n">
         <v>274.7</v>
       </c>
       <c r="E202" t="n">
-        <v>274.7</v>
+        <v>274</v>
       </c>
       <c r="F202" t="n">
-        <v>692.2609</v>
+        <v>1461.3565</v>
       </c>
       <c r="G202" t="n">
-        <v>278.3733333333332</v>
+        <v>278.4283333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>274.6</v>
+        <v>274.7</v>
       </c>
       <c r="C203" t="n">
-        <v>274.6</v>
+        <v>274.7</v>
       </c>
       <c r="D203" t="n">
-        <v>274.6</v>
+        <v>274.7</v>
       </c>
       <c r="E203" t="n">
-        <v>274.6</v>
+        <v>274.7</v>
       </c>
       <c r="F203" t="n">
-        <v>5120.6054</v>
+        <v>692.2609</v>
       </c>
       <c r="G203" t="n">
-        <v>278.3183333333331</v>
+        <v>278.3733333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>274.6</v>
       </c>
       <c r="F204" t="n">
-        <v>2173.5813</v>
+        <v>5120.6054</v>
       </c>
       <c r="G204" t="n">
-        <v>278.2616666666664</v>
+        <v>278.3183333333331</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7541,19 +7541,19 @@
         <v>274.6</v>
       </c>
       <c r="C205" t="n">
-        <v>273.7</v>
+        <v>274.6</v>
       </c>
       <c r="D205" t="n">
         <v>274.6</v>
       </c>
       <c r="E205" t="n">
-        <v>273.7</v>
+        <v>274.6</v>
       </c>
       <c r="F205" t="n">
-        <v>12034.2672</v>
+        <v>2173.5813</v>
       </c>
       <c r="G205" t="n">
-        <v>278.1899999999998</v>
+        <v>278.2616666666664</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>273.8</v>
+        <v>274.6</v>
       </c>
       <c r="C206" t="n">
-        <v>273.8</v>
+        <v>273.7</v>
       </c>
       <c r="D206" t="n">
-        <v>273.8</v>
+        <v>274.6</v>
       </c>
       <c r="E206" t="n">
-        <v>273.8</v>
+        <v>273.7</v>
       </c>
       <c r="F206" t="n">
-        <v>596.6572</v>
+        <v>12034.2672</v>
       </c>
       <c r="G206" t="n">
-        <v>278.1199999999998</v>
+        <v>278.1899999999998</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>274</v>
+        <v>273.8</v>
       </c>
       <c r="C207" t="n">
         <v>273.8</v>
       </c>
       <c r="D207" t="n">
-        <v>274</v>
+        <v>273.8</v>
       </c>
       <c r="E207" t="n">
         <v>273.8</v>
       </c>
       <c r="F207" t="n">
-        <v>2189.1467</v>
+        <v>596.6572</v>
       </c>
       <c r="G207" t="n">
-        <v>278.0383333333331</v>
+        <v>278.1199999999998</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,35 +7643,31 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>275.8</v>
+        <v>274</v>
       </c>
       <c r="C208" t="n">
-        <v>275.8</v>
+        <v>273.8</v>
       </c>
       <c r="D208" t="n">
-        <v>275.8</v>
+        <v>274</v>
       </c>
       <c r="E208" t="n">
-        <v>275.8</v>
+        <v>273.8</v>
       </c>
       <c r="F208" t="n">
-        <v>1453.8084</v>
+        <v>2189.1467</v>
       </c>
       <c r="G208" t="n">
-        <v>277.9899999999997</v>
+        <v>278.0383333333331</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="K208" t="n">
-        <v>273.8</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
@@ -7694,10 +7690,10 @@
         <v>275.8</v>
       </c>
       <c r="F209" t="n">
-        <v>3575.3836</v>
+        <v>1453.8084</v>
       </c>
       <c r="G209" t="n">
-        <v>277.9449999999997</v>
+        <v>277.9899999999997</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7706,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7735,10 +7725,10 @@
         <v>275.8</v>
       </c>
       <c r="F210" t="n">
-        <v>3550.0033</v>
+        <v>3575.3836</v>
       </c>
       <c r="G210" t="n">
-        <v>277.8966666666664</v>
+        <v>277.9449999999997</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7747,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7764,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>276.1</v>
+        <v>275.8</v>
       </c>
       <c r="C211" t="n">
-        <v>276.1</v>
+        <v>275.8</v>
       </c>
       <c r="D211" t="n">
-        <v>276.1</v>
+        <v>275.8</v>
       </c>
       <c r="E211" t="n">
-        <v>276.1</v>
+        <v>275.8</v>
       </c>
       <c r="F211" t="n">
-        <v>21.99927562</v>
+        <v>3550.0033</v>
       </c>
       <c r="G211" t="n">
-        <v>277.8499999999996</v>
+        <v>277.8966666666664</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7811,10 +7795,10 @@
         <v>276.1</v>
       </c>
       <c r="F212" t="n">
-        <v>2912.37072438</v>
+        <v>21.99927562</v>
       </c>
       <c r="G212" t="n">
-        <v>277.8183333333329</v>
+        <v>277.8499999999996</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7846,10 +7830,10 @@
         <v>276.1</v>
       </c>
       <c r="F213" t="n">
-        <v>1887.07437562</v>
+        <v>2912.37072438</v>
       </c>
       <c r="G213" t="n">
-        <v>277.7699999999996</v>
+        <v>277.8183333333329</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7869,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>274.8</v>
+        <v>276.1</v>
       </c>
       <c r="C214" t="n">
-        <v>274.8</v>
+        <v>276.1</v>
       </c>
       <c r="D214" t="n">
-        <v>274.8</v>
+        <v>276.1</v>
       </c>
       <c r="E214" t="n">
-        <v>274.8</v>
+        <v>276.1</v>
       </c>
       <c r="F214" t="n">
-        <v>1210.9</v>
+        <v>1887.07437562</v>
       </c>
       <c r="G214" t="n">
-        <v>277.7166666666662</v>
+        <v>277.7699999999996</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7904,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>274.6</v>
+        <v>274.8</v>
       </c>
       <c r="C215" t="n">
-        <v>273.6</v>
+        <v>274.8</v>
       </c>
       <c r="D215" t="n">
-        <v>274.6</v>
+        <v>274.8</v>
       </c>
       <c r="E215" t="n">
-        <v>273.6</v>
+        <v>274.8</v>
       </c>
       <c r="F215" t="n">
-        <v>8976.2363</v>
+        <v>1210.9</v>
       </c>
       <c r="G215" t="n">
-        <v>277.6433333333329</v>
+        <v>277.7166666666662</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7942,19 +7926,19 @@
         <v>274.6</v>
       </c>
       <c r="C216" t="n">
-        <v>274.6</v>
+        <v>273.6</v>
       </c>
       <c r="D216" t="n">
         <v>274.6</v>
       </c>
       <c r="E216" t="n">
-        <v>274.6</v>
+        <v>273.6</v>
       </c>
       <c r="F216" t="n">
-        <v>525.8891</v>
+        <v>8976.2363</v>
       </c>
       <c r="G216" t="n">
-        <v>277.5866666666662</v>
+        <v>277.6433333333329</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7974,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>273.6</v>
+        <v>274.6</v>
       </c>
       <c r="C217" t="n">
-        <v>273.6</v>
+        <v>274.6</v>
       </c>
       <c r="D217" t="n">
         <v>274.6</v>
       </c>
       <c r="E217" t="n">
-        <v>273.6</v>
+        <v>274.6</v>
       </c>
       <c r="F217" t="n">
-        <v>1546.5962</v>
+        <v>525.8891</v>
       </c>
       <c r="G217" t="n">
-        <v>277.5149999999995</v>
+        <v>277.5866666666662</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8009,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>275.3</v>
+        <v>273.6</v>
       </c>
       <c r="C218" t="n">
-        <v>275.3</v>
+        <v>273.6</v>
       </c>
       <c r="D218" t="n">
-        <v>275.3</v>
+        <v>274.6</v>
       </c>
       <c r="E218" t="n">
-        <v>275.3</v>
+        <v>273.6</v>
       </c>
       <c r="F218" t="n">
-        <v>72.6481</v>
+        <v>1546.5962</v>
       </c>
       <c r="G218" t="n">
-        <v>277.4866666666661</v>
+        <v>277.5149999999995</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8044,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>273.7</v>
+        <v>275.3</v>
       </c>
       <c r="C219" t="n">
-        <v>273.6</v>
+        <v>275.3</v>
       </c>
       <c r="D219" t="n">
-        <v>273.7</v>
+        <v>275.3</v>
       </c>
       <c r="E219" t="n">
-        <v>273.6</v>
+        <v>275.3</v>
       </c>
       <c r="F219" t="n">
-        <v>3195.6316</v>
+        <v>72.6481</v>
       </c>
       <c r="G219" t="n">
-        <v>277.3983333333327</v>
+        <v>277.4866666666661</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8079,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="C220" t="n">
         <v>273.6</v>
       </c>
-      <c r="C220" t="n">
-        <v>273.5</v>
-      </c>
       <c r="D220" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="E220" t="n">
         <v>273.6</v>
       </c>
-      <c r="E220" t="n">
-        <v>273.5</v>
-      </c>
       <c r="F220" t="n">
-        <v>15459.6279</v>
+        <v>3195.6316</v>
       </c>
       <c r="G220" t="n">
-        <v>277.3066666666661</v>
+        <v>277.3983333333327</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8117,19 +8101,19 @@
         <v>273.6</v>
       </c>
       <c r="C221" t="n">
-        <v>273.6</v>
+        <v>273.5</v>
       </c>
       <c r="D221" t="n">
         <v>273.6</v>
       </c>
       <c r="E221" t="n">
-        <v>273.6</v>
+        <v>273.5</v>
       </c>
       <c r="F221" t="n">
-        <v>672.8817</v>
+        <v>15459.6279</v>
       </c>
       <c r="G221" t="n">
-        <v>277.2166666666661</v>
+        <v>277.3066666666661</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8161,10 +8145,10 @@
         <v>273.6</v>
       </c>
       <c r="F222" t="n">
-        <v>772.2316</v>
+        <v>672.8817</v>
       </c>
       <c r="G222" t="n">
-        <v>277.126666666666</v>
+        <v>277.2166666666661</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8196,10 +8180,10 @@
         <v>273.6</v>
       </c>
       <c r="F223" t="n">
-        <v>2442.9806</v>
+        <v>772.2316</v>
       </c>
       <c r="G223" t="n">
-        <v>277.036666666666</v>
+        <v>277.126666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8219,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>273.5</v>
+        <v>273.6</v>
       </c>
       <c r="C224" t="n">
-        <v>272.8</v>
+        <v>273.6</v>
       </c>
       <c r="D224" t="n">
         <v>273.6</v>
       </c>
       <c r="E224" t="n">
-        <v>272.8</v>
+        <v>273.6</v>
       </c>
       <c r="F224" t="n">
-        <v>14544.3783</v>
+        <v>2442.9806</v>
       </c>
       <c r="G224" t="n">
-        <v>276.9333333333327</v>
+        <v>277.036666666666</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8254,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>272.8</v>
+        <v>273.5</v>
       </c>
       <c r="C225" t="n">
         <v>272.8</v>
       </c>
       <c r="D225" t="n">
-        <v>272.8</v>
+        <v>273.6</v>
       </c>
       <c r="E225" t="n">
         <v>272.8</v>
       </c>
       <c r="F225" t="n">
-        <v>5101.7567</v>
+        <v>14544.3783</v>
       </c>
       <c r="G225" t="n">
-        <v>276.8299999999993</v>
+        <v>276.9333333333327</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8301,10 +8285,10 @@
         <v>272.8</v>
       </c>
       <c r="F226" t="n">
-        <v>124.1772</v>
+        <v>5101.7567</v>
       </c>
       <c r="G226" t="n">
-        <v>276.7266666666659</v>
+        <v>276.8299999999993</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8336,23 +8320,19 @@
         <v>272.8</v>
       </c>
       <c r="F227" t="n">
-        <v>4781.5804</v>
+        <v>124.1772</v>
       </c>
       <c r="G227" t="n">
-        <v>276.6233333333327</v>
+        <v>276.7266666666659</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="K227" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
@@ -8375,28 +8355,20 @@
         <v>272.8</v>
       </c>
       <c r="F228" t="n">
-        <v>219.3929</v>
+        <v>4781.5804</v>
       </c>
       <c r="G228" t="n">
-        <v>276.5199999999993</v>
+        <v>276.6233333333327</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="K228" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8418,28 +8390,20 @@
         <v>272.8</v>
       </c>
       <c r="F229" t="n">
-        <v>5094.5882</v>
+        <v>219.3929</v>
       </c>
       <c r="G229" t="n">
-        <v>276.3949999999993</v>
+        <v>276.5199999999993</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="K229" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8461,23 +8425,19 @@
         <v>272.8</v>
       </c>
       <c r="F230" t="n">
-        <v>195.0585</v>
+        <v>5094.5882</v>
       </c>
       <c r="G230" t="n">
-        <v>276.2699999999993</v>
+        <v>276.3949999999993</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="K230" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
@@ -8488,7 +8448,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>272.4</v>
+        <v>272.8</v>
       </c>
       <c r="C231" t="n">
         <v>272.8</v>
@@ -8497,74 +8457,64 @@
         <v>272.8</v>
       </c>
       <c r="E231" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F231" t="n">
+        <v>195.0585</v>
+      </c>
+      <c r="G231" t="n">
+        <v>276.2699999999993</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
         <v>272.4</v>
       </c>
-      <c r="F231" t="n">
+      <c r="C232" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D232" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E232" t="n">
+        <v>272.4</v>
+      </c>
+      <c r="F232" t="n">
         <v>3564.9193</v>
       </c>
-      <c r="G231" t="n">
+      <c r="G232" t="n">
         <v>276.1466666666659</v>
       </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
         <v>272.8</v>
       </c>
-      <c r="K231" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="C232" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="D232" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="E232" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="F232" t="n">
-        <v>10741.1474</v>
-      </c>
-      <c r="G232" t="n">
-        <v>276.031666666666</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="K232" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8574,35 +8524,33 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="C233" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="D233" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="E233" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="F233" t="n">
+        <v>10741.1474</v>
+      </c>
+      <c r="G233" t="n">
+        <v>276.031666666666</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
         <v>272.8</v>
       </c>
-      <c r="C233" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D233" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E233" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F233" t="n">
-        <v>136.2708</v>
-      </c>
-      <c r="G233" t="n">
-        <v>275.926666666666</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="K233" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8617,33 +8565,33 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>272.5</v>
+        <v>272.8</v>
       </c>
       <c r="C234" t="n">
-        <v>272.5</v>
+        <v>272.8</v>
       </c>
       <c r="D234" t="n">
-        <v>272.5</v>
+        <v>272.8</v>
       </c>
       <c r="E234" t="n">
-        <v>272.5</v>
+        <v>272.8</v>
       </c>
       <c r="F234" t="n">
-        <v>573.1438000000001</v>
+        <v>136.2708</v>
       </c>
       <c r="G234" t="n">
-        <v>275.7899999999993</v>
+        <v>275.926666666666</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="J234" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8658,33 +8606,33 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="C235" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="D235" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="E235" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="F235" t="n">
+        <v>573.1438000000001</v>
+      </c>
+      <c r="G235" t="n">
+        <v>275.7899999999993</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
         <v>272.8</v>
       </c>
-      <c r="C235" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D235" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E235" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F235" t="n">
-        <v>409.2748</v>
-      </c>
-      <c r="G235" t="n">
-        <v>275.6683333333327</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8702,30 +8650,30 @@
         <v>272.8</v>
       </c>
       <c r="C236" t="n">
-        <v>276.1</v>
+        <v>272.8</v>
       </c>
       <c r="D236" t="n">
-        <v>276.1</v>
+        <v>272.8</v>
       </c>
       <c r="E236" t="n">
         <v>272.8</v>
       </c>
       <c r="F236" t="n">
-        <v>6478.499</v>
+        <v>409.2748</v>
       </c>
       <c r="G236" t="n">
-        <v>275.591666666666</v>
+        <v>275.6683333333327</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="J236" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8740,22 +8688,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>274</v>
+        <v>272.8</v>
       </c>
       <c r="C237" t="n">
-        <v>272.7</v>
+        <v>276.1</v>
       </c>
       <c r="D237" t="n">
-        <v>274</v>
+        <v>276.1</v>
       </c>
       <c r="E237" t="n">
-        <v>272.7</v>
+        <v>272.8</v>
       </c>
       <c r="F237" t="n">
-        <v>50</v>
+        <v>6478.499</v>
       </c>
       <c r="G237" t="n">
-        <v>275.4583333333326</v>
+        <v>275.591666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8764,9 +8712,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8781,22 +8727,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>272.7</v>
+        <v>274</v>
       </c>
       <c r="C238" t="n">
         <v>272.7</v>
       </c>
       <c r="D238" t="n">
-        <v>272.7</v>
+        <v>274</v>
       </c>
       <c r="E238" t="n">
         <v>272.7</v>
       </c>
       <c r="F238" t="n">
-        <v>4.3882</v>
+        <v>50</v>
       </c>
       <c r="G238" t="n">
-        <v>275.326666666666</v>
+        <v>275.4583333333326</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8805,9 +8751,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8834,10 +8778,10 @@
         <v>272.7</v>
       </c>
       <c r="F239" t="n">
-        <v>291.9327</v>
+        <v>4.3882</v>
       </c>
       <c r="G239" t="n">
-        <v>275.2049999999993</v>
+        <v>275.326666666666</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8846,9 +8790,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8875,10 +8817,10 @@
         <v>272.7</v>
       </c>
       <c r="F240" t="n">
-        <v>1859.6067</v>
+        <v>291.9327</v>
       </c>
       <c r="G240" t="n">
-        <v>275.076666666666</v>
+        <v>275.2049999999993</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8887,9 +8829,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8916,10 +8856,10 @@
         <v>272.7</v>
       </c>
       <c r="F241" t="n">
-        <v>1487.7039</v>
+        <v>1859.6067</v>
       </c>
       <c r="G241" t="n">
-        <v>274.9533333333327</v>
+        <v>275.076666666666</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8928,9 +8868,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,22 +8883,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>272.6</v>
+        <v>272.7</v>
       </c>
       <c r="C242" t="n">
-        <v>272.6</v>
+        <v>272.7</v>
       </c>
       <c r="D242" t="n">
-        <v>272.6</v>
+        <v>272.7</v>
       </c>
       <c r="E242" t="n">
-        <v>272.6</v>
+        <v>272.7</v>
       </c>
       <c r="F242" t="n">
-        <v>602.2412</v>
+        <v>1487.7039</v>
       </c>
       <c r="G242" t="n">
-        <v>274.8283333333327</v>
+        <v>274.9533333333327</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8969,9 +8907,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8986,22 +8922,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>273</v>
+        <v>272.6</v>
       </c>
       <c r="C243" t="n">
-        <v>273</v>
+        <v>272.6</v>
       </c>
       <c r="D243" t="n">
-        <v>273</v>
+        <v>272.6</v>
       </c>
       <c r="E243" t="n">
-        <v>273</v>
+        <v>272.6</v>
       </c>
       <c r="F243" t="n">
-        <v>11.6359</v>
+        <v>602.2412</v>
       </c>
       <c r="G243" t="n">
-        <v>274.7099999999994</v>
+        <v>274.8283333333327</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9010,9 +8946,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9039,10 +8973,10 @@
         <v>273</v>
       </c>
       <c r="F244" t="n">
-        <v>26.2287</v>
+        <v>11.6359</v>
       </c>
       <c r="G244" t="n">
-        <v>274.5916666666661</v>
+        <v>274.7099999999994</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9051,9 +8985,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9080,10 +9012,10 @@
         <v>273</v>
       </c>
       <c r="F245" t="n">
-        <v>199.9732</v>
+        <v>26.2287</v>
       </c>
       <c r="G245" t="n">
-        <v>274.4749999999994</v>
+        <v>274.5916666666661</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9092,9 +9024,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9109,33 +9039,33 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>274.4</v>
+        <v>273</v>
       </c>
       <c r="C246" t="n">
-        <v>274.4</v>
+        <v>273</v>
       </c>
       <c r="D246" t="n">
-        <v>274.4</v>
+        <v>273</v>
       </c>
       <c r="E246" t="n">
-        <v>274.4</v>
+        <v>273</v>
       </c>
       <c r="F246" t="n">
-        <v>3723.4327</v>
+        <v>199.9732</v>
       </c>
       <c r="G246" t="n">
-        <v>274.3816666666661</v>
+        <v>274.4749999999994</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="J246" t="n">
+        <v>273</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9150,22 +9080,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>273.1</v>
+        <v>274.4</v>
       </c>
       <c r="C247" t="n">
-        <v>273.1</v>
+        <v>274.4</v>
       </c>
       <c r="D247" t="n">
-        <v>273.1</v>
+        <v>274.4</v>
       </c>
       <c r="E247" t="n">
-        <v>273.1</v>
+        <v>274.4</v>
       </c>
       <c r="F247" t="n">
-        <v>296.4399</v>
+        <v>3723.4327</v>
       </c>
       <c r="G247" t="n">
-        <v>274.2983333333328</v>
+        <v>274.3816666666661</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9174,9 +9104,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9203,10 +9131,10 @@
         <v>273.1</v>
       </c>
       <c r="F248" t="n">
-        <v>712.4648999999999</v>
+        <v>296.4399</v>
       </c>
       <c r="G248" t="n">
-        <v>274.2166666666661</v>
+        <v>274.2983333333328</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9215,9 +9143,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9244,10 +9170,10 @@
         <v>273.1</v>
       </c>
       <c r="F249" t="n">
-        <v>641.2184</v>
+        <v>712.4648999999999</v>
       </c>
       <c r="G249" t="n">
-        <v>274.1399999999994</v>
+        <v>274.2166666666661</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9256,9 +9182,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,22 +9197,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>274.8</v>
+        <v>273.1</v>
       </c>
       <c r="C250" t="n">
-        <v>273.6</v>
+        <v>273.1</v>
       </c>
       <c r="D250" t="n">
-        <v>274.8</v>
+        <v>273.1</v>
       </c>
       <c r="E250" t="n">
-        <v>273.6</v>
+        <v>273.1</v>
       </c>
       <c r="F250" t="n">
-        <v>200</v>
+        <v>641.2184</v>
       </c>
       <c r="G250" t="n">
-        <v>274.071666666666</v>
+        <v>274.1399999999994</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9297,9 +9221,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9314,22 +9236,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>273.1</v>
+        <v>274.8</v>
       </c>
       <c r="C251" t="n">
-        <v>273.1</v>
+        <v>273.6</v>
       </c>
       <c r="D251" t="n">
-        <v>273.1</v>
+        <v>274.8</v>
       </c>
       <c r="E251" t="n">
-        <v>273.1</v>
+        <v>273.6</v>
       </c>
       <c r="F251" t="n">
-        <v>644.4583</v>
+        <v>200</v>
       </c>
       <c r="G251" t="n">
-        <v>273.9983333333327</v>
+        <v>274.071666666666</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9338,9 +9260,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9355,22 +9275,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>273</v>
+        <v>273.1</v>
       </c>
       <c r="C252" t="n">
-        <v>272.6</v>
+        <v>273.1</v>
       </c>
       <c r="D252" t="n">
-        <v>273</v>
+        <v>273.1</v>
       </c>
       <c r="E252" t="n">
-        <v>272.6</v>
+        <v>273.1</v>
       </c>
       <c r="F252" t="n">
-        <v>1776.4336</v>
+        <v>644.4583</v>
       </c>
       <c r="G252" t="n">
-        <v>273.9333333333326</v>
+        <v>273.9983333333327</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9379,9 +9299,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9396,22 +9314,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>273.6</v>
+        <v>273</v>
       </c>
       <c r="C253" t="n">
-        <v>273.6</v>
+        <v>272.6</v>
       </c>
       <c r="D253" t="n">
-        <v>273.6</v>
+        <v>273</v>
       </c>
       <c r="E253" t="n">
-        <v>273.6</v>
+        <v>272.6</v>
       </c>
       <c r="F253" t="n">
-        <v>242.8228</v>
+        <v>1776.4336</v>
       </c>
       <c r="G253" t="n">
-        <v>273.8883333333326</v>
+        <v>273.9333333333326</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9420,9 +9338,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9449,10 +9365,10 @@
         <v>273.6</v>
       </c>
       <c r="F254" t="n">
-        <v>376.1128</v>
+        <v>242.8228</v>
       </c>
       <c r="G254" t="n">
-        <v>273.8433333333326</v>
+        <v>273.8883333333326</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9461,9 +9377,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9490,10 +9404,10 @@
         <v>273.6</v>
       </c>
       <c r="F255" t="n">
-        <v>160.3481</v>
+        <v>376.1128</v>
       </c>
       <c r="G255" t="n">
-        <v>273.8033333333325</v>
+        <v>273.8433333333326</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9502,9 +9416,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9531,10 +9443,10 @@
         <v>273.6</v>
       </c>
       <c r="F256" t="n">
-        <v>2006.1991</v>
+        <v>160.3481</v>
       </c>
       <c r="G256" t="n">
-        <v>273.7699999999992</v>
+        <v>273.8033333333325</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9543,9 +9455,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,22 +9470,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>274</v>
+        <v>273.6</v>
       </c>
       <c r="C257" t="n">
-        <v>274</v>
+        <v>273.6</v>
       </c>
       <c r="D257" t="n">
-        <v>274</v>
+        <v>273.6</v>
       </c>
       <c r="E257" t="n">
-        <v>274</v>
+        <v>273.6</v>
       </c>
       <c r="F257" t="n">
-        <v>904.524</v>
+        <v>2006.1991</v>
       </c>
       <c r="G257" t="n">
-        <v>273.7516666666659</v>
+        <v>273.7699999999992</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9584,9 +9494,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9613,10 +9521,10 @@
         <v>274</v>
       </c>
       <c r="F258" t="n">
-        <v>122.1892</v>
+        <v>904.524</v>
       </c>
       <c r="G258" t="n">
-        <v>273.7349999999993</v>
+        <v>273.7516666666659</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9625,9 +9533,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9654,10 +9560,10 @@
         <v>274</v>
       </c>
       <c r="F259" t="n">
-        <v>26.524</v>
+        <v>122.1892</v>
       </c>
       <c r="G259" t="n">
-        <v>273.716666666666</v>
+        <v>273.7349999999993</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9666,9 +9572,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9695,10 +9599,10 @@
         <v>274</v>
       </c>
       <c r="F260" t="n">
-        <v>652.6897</v>
+        <v>26.524</v>
       </c>
       <c r="G260" t="n">
-        <v>273.6999999999992</v>
+        <v>273.716666666666</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9707,9 +9611,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9724,22 +9626,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C261" t="n">
-        <v>272.9</v>
+        <v>274</v>
       </c>
       <c r="D261" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E261" t="n">
-        <v>272.9</v>
+        <v>274</v>
       </c>
       <c r="F261" t="n">
-        <v>2169.7812</v>
+        <v>652.6897</v>
       </c>
       <c r="G261" t="n">
-        <v>273.681666666666</v>
+        <v>273.6999999999992</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9748,9 +9650,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9765,22 +9665,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>272.8</v>
+        <v>273</v>
       </c>
       <c r="C262" t="n">
-        <v>272.8</v>
+        <v>272.9</v>
       </c>
       <c r="D262" t="n">
-        <v>272.8</v>
+        <v>273</v>
       </c>
       <c r="E262" t="n">
-        <v>272.8</v>
+        <v>272.9</v>
       </c>
       <c r="F262" t="n">
-        <v>2000</v>
+        <v>2169.7812</v>
       </c>
       <c r="G262" t="n">
-        <v>273.6499999999993</v>
+        <v>273.681666666666</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9789,9 +9689,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9809,19 +9707,19 @@
         <v>272.8</v>
       </c>
       <c r="C263" t="n">
-        <v>271.7</v>
+        <v>272.8</v>
       </c>
       <c r="D263" t="n">
         <v>272.8</v>
       </c>
       <c r="E263" t="n">
-        <v>271.7</v>
+        <v>272.8</v>
       </c>
       <c r="F263" t="n">
-        <v>12219.4256</v>
+        <v>2000</v>
       </c>
       <c r="G263" t="n">
-        <v>273.6016666666659</v>
+        <v>273.6499999999993</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9830,9 +9728,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9847,22 +9743,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>273.3</v>
+        <v>272.8</v>
       </c>
       <c r="C264" t="n">
-        <v>273.3</v>
+        <v>271.7</v>
       </c>
       <c r="D264" t="n">
-        <v>273.3</v>
+        <v>272.8</v>
       </c>
       <c r="E264" t="n">
-        <v>273.3</v>
+        <v>271.7</v>
       </c>
       <c r="F264" t="n">
-        <v>300</v>
+        <v>12219.4256</v>
       </c>
       <c r="G264" t="n">
-        <v>273.5799999999993</v>
+        <v>273.6016666666659</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9871,9 +9767,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,10 +9794,10 @@
         <v>273.3</v>
       </c>
       <c r="F265" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G265" t="n">
-        <v>273.5733333333326</v>
+        <v>273.5799999999993</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9912,9 +9806,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9929,22 +9821,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>273.9</v>
+        <v>273.3</v>
       </c>
       <c r="C266" t="n">
-        <v>274</v>
+        <v>273.3</v>
       </c>
       <c r="D266" t="n">
-        <v>274</v>
+        <v>273.3</v>
       </c>
       <c r="E266" t="n">
-        <v>273.9</v>
+        <v>273.3</v>
       </c>
       <c r="F266" t="n">
-        <v>663.0358</v>
+        <v>150</v>
       </c>
       <c r="G266" t="n">
-        <v>273.576666666666</v>
+        <v>273.5733333333326</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9953,9 +9845,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9970,22 +9860,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
+        <v>273.9</v>
+      </c>
+      <c r="C267" t="n">
         <v>274</v>
       </c>
-      <c r="C267" t="n">
-        <v>275</v>
-      </c>
       <c r="D267" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E267" t="n">
-        <v>274</v>
+        <v>273.9</v>
       </c>
       <c r="F267" t="n">
-        <v>20938.4373</v>
+        <v>663.0358</v>
       </c>
       <c r="G267" t="n">
-        <v>273.596666666666</v>
+        <v>273.576666666666</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9994,9 +9884,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10011,7 +9899,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C268" t="n">
         <v>275</v>
@@ -10020,13 +9908,13 @@
         <v>275</v>
       </c>
       <c r="E268" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F268" t="n">
-        <v>231.35</v>
+        <v>20938.4373</v>
       </c>
       <c r="G268" t="n">
-        <v>273.5833333333327</v>
+        <v>273.596666666666</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10035,9 +9923,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10052,22 +9938,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C269" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D269" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E269" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F269" t="n">
-        <v>7843.5294</v>
+        <v>231.35</v>
       </c>
       <c r="G269" t="n">
-        <v>273.586666666666</v>
+        <v>273.5833333333327</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10076,9 +9962,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10093,22 +9977,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>275.9</v>
+        <v>276</v>
       </c>
       <c r="C270" t="n">
-        <v>275.9</v>
+        <v>276</v>
       </c>
       <c r="D270" t="n">
-        <v>275.9</v>
+        <v>276</v>
       </c>
       <c r="E270" t="n">
-        <v>275.9</v>
+        <v>276</v>
       </c>
       <c r="F270" t="n">
-        <v>9456.09</v>
+        <v>7843.5294</v>
       </c>
       <c r="G270" t="n">
-        <v>273.5883333333327</v>
+        <v>273.586666666666</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10117,9 +10001,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10146,10 +10028,10 @@
         <v>275.9</v>
       </c>
       <c r="F271" t="n">
-        <v>8707.2299</v>
+        <v>9456.09</v>
       </c>
       <c r="G271" t="n">
-        <v>273.5849999999994</v>
+        <v>273.5883333333327</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10158,9 +10040,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10187,10 +10067,10 @@
         <v>275.9</v>
       </c>
       <c r="F272" t="n">
-        <v>12.651</v>
+        <v>8707.2299</v>
       </c>
       <c r="G272" t="n">
-        <v>273.5816666666661</v>
+        <v>273.5849999999994</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10199,9 +10079,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10216,7 +10094,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>275.1</v>
+        <v>275.9</v>
       </c>
       <c r="C273" t="n">
         <v>275.9</v>
@@ -10225,13 +10103,13 @@
         <v>275.9</v>
       </c>
       <c r="E273" t="n">
-        <v>275.1</v>
+        <v>275.9</v>
       </c>
       <c r="F273" t="n">
-        <v>1397.2193</v>
+        <v>12.651</v>
       </c>
       <c r="G273" t="n">
-        <v>273.5783333333329</v>
+        <v>273.5816666666661</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10240,9 +10118,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10257,7 +10133,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>274.6</v>
+        <v>275.1</v>
       </c>
       <c r="C274" t="n">
         <v>275.9</v>
@@ -10266,13 +10142,13 @@
         <v>275.9</v>
       </c>
       <c r="E274" t="n">
-        <v>274.6</v>
+        <v>275.1</v>
       </c>
       <c r="F274" t="n">
-        <v>1825.5018</v>
+        <v>1397.2193</v>
       </c>
       <c r="G274" t="n">
-        <v>273.5966666666662</v>
+        <v>273.5783333333329</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10281,9 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10298,22 +10172,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>274</v>
+        <v>274.6</v>
       </c>
       <c r="C275" t="n">
-        <v>274</v>
+        <v>275.9</v>
       </c>
       <c r="D275" t="n">
-        <v>274</v>
+        <v>275.9</v>
       </c>
       <c r="E275" t="n">
-        <v>274</v>
+        <v>274.6</v>
       </c>
       <c r="F275" t="n">
-        <v>1884.1991</v>
+        <v>1825.5018</v>
       </c>
       <c r="G275" t="n">
-        <v>273.6033333333329</v>
+        <v>273.5966666666662</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10322,9 +10196,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10339,19 +10211,19 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>274.6</v>
+        <v>274</v>
       </c>
       <c r="C276" t="n">
-        <v>274.6</v>
+        <v>274</v>
       </c>
       <c r="D276" t="n">
-        <v>274.6</v>
+        <v>274</v>
       </c>
       <c r="E276" t="n">
-        <v>274.6</v>
+        <v>274</v>
       </c>
       <c r="F276" t="n">
-        <v>1633.9</v>
+        <v>1884.1991</v>
       </c>
       <c r="G276" t="n">
         <v>273.6033333333329</v>
@@ -10363,9 +10235,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10386,16 +10256,16 @@
         <v>274.6</v>
       </c>
       <c r="D277" t="n">
-        <v>275.6</v>
+        <v>274.6</v>
       </c>
       <c r="E277" t="n">
         <v>274.6</v>
       </c>
       <c r="F277" t="n">
-        <v>13630.9747</v>
+        <v>1633.9</v>
       </c>
       <c r="G277" t="n">
-        <v>273.6199999999996</v>
+        <v>273.6033333333329</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10404,9 +10274,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10421,22 +10289,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>275.5</v>
+        <v>274.6</v>
       </c>
       <c r="C278" t="n">
-        <v>273.6</v>
+        <v>274.6</v>
       </c>
       <c r="D278" t="n">
-        <v>275.5</v>
+        <v>275.6</v>
       </c>
       <c r="E278" t="n">
-        <v>273.6</v>
+        <v>274.6</v>
       </c>
       <c r="F278" t="n">
-        <v>3319</v>
+        <v>13630.9747</v>
       </c>
       <c r="G278" t="n">
-        <v>273.5916666666662</v>
+        <v>273.6199999999996</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10445,9 +10313,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10462,22 +10328,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>274.7</v>
+        <v>275.5</v>
       </c>
       <c r="C279" t="n">
-        <v>274.5</v>
+        <v>273.6</v>
       </c>
       <c r="D279" t="n">
-        <v>274.7</v>
+        <v>275.5</v>
       </c>
       <c r="E279" t="n">
-        <v>273.5</v>
+        <v>273.6</v>
       </c>
       <c r="F279" t="n">
-        <v>7221.6</v>
+        <v>3319</v>
       </c>
       <c r="G279" t="n">
-        <v>273.6066666666663</v>
+        <v>273.5916666666662</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10486,9 +10352,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10503,22 +10367,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>275.1</v>
+        <v>274.7</v>
       </c>
       <c r="C280" t="n">
-        <v>275.1</v>
+        <v>274.5</v>
       </c>
       <c r="D280" t="n">
-        <v>275.1</v>
+        <v>274.7</v>
       </c>
       <c r="E280" t="n">
-        <v>275.1</v>
+        <v>273.5</v>
       </c>
       <c r="F280" t="n">
-        <v>406.25</v>
+        <v>7221.6</v>
       </c>
       <c r="G280" t="n">
-        <v>273.6333333333329</v>
+        <v>273.6066666666663</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10527,9 +10391,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10556,10 +10418,10 @@
         <v>275.1</v>
       </c>
       <c r="F281" t="n">
-        <v>7394.3628</v>
+        <v>406.25</v>
       </c>
       <c r="G281" t="n">
-        <v>273.6583333333329</v>
+        <v>273.6333333333329</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10568,9 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10585,22 +10445,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>275.3</v>
+        <v>275.1</v>
       </c>
       <c r="C282" t="n">
-        <v>275.3</v>
+        <v>275.1</v>
       </c>
       <c r="D282" t="n">
-        <v>275.3</v>
+        <v>275.1</v>
       </c>
       <c r="E282" t="n">
-        <v>275.3</v>
+        <v>275.1</v>
       </c>
       <c r="F282" t="n">
-        <v>2828.3</v>
+        <v>7394.3628</v>
       </c>
       <c r="G282" t="n">
-        <v>273.6866666666663</v>
+        <v>273.6583333333329</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10609,9 +10469,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10629,19 +10487,19 @@
         <v>275.3</v>
       </c>
       <c r="C283" t="n">
-        <v>275.9</v>
+        <v>275.3</v>
       </c>
       <c r="D283" t="n">
-        <v>275.9</v>
+        <v>275.3</v>
       </c>
       <c r="E283" t="n">
         <v>275.3</v>
       </c>
       <c r="F283" t="n">
-        <v>7151</v>
+        <v>2828.3</v>
       </c>
       <c r="G283" t="n">
-        <v>273.7249999999996</v>
+        <v>273.6866666666663</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10650,9 +10508,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10667,22 +10523,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>276</v>
+        <v>275.3</v>
       </c>
       <c r="C284" t="n">
-        <v>274.7</v>
+        <v>275.9</v>
       </c>
       <c r="D284" t="n">
-        <v>276</v>
+        <v>275.9</v>
       </c>
       <c r="E284" t="n">
-        <v>274.7</v>
+        <v>275.3</v>
       </c>
       <c r="F284" t="n">
-        <v>3382.2247</v>
+        <v>7151</v>
       </c>
       <c r="G284" t="n">
-        <v>273.7566666666663</v>
+        <v>273.7249999999996</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10691,9 +10547,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>272.8</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10708,279 +10562,299 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
+        <v>276</v>
+      </c>
+      <c r="C285" t="n">
+        <v>274.7</v>
+      </c>
+      <c r="D285" t="n">
+        <v>276</v>
+      </c>
+      <c r="E285" t="n">
+        <v>274.7</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3382.2247</v>
+      </c>
+      <c r="G285" t="n">
+        <v>273.7566666666663</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
         <v>275.5</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C286" t="n">
         <v>275.5</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D286" t="n">
         <v>275.5</v>
       </c>
-      <c r="E285" t="n">
+      <c r="E286" t="n">
         <v>275.5</v>
       </c>
-      <c r="F285" t="n">
+      <c r="F286" t="n">
         <v>1555.7</v>
       </c>
-      <c r="G285" t="n">
+      <c r="G286" t="n">
         <v>273.8016666666663</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="L285" t="inlineStr">
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="C287" t="n">
+        <v>276.4</v>
+      </c>
+      <c r="D287" t="n">
+        <v>276.4</v>
+      </c>
+      <c r="E287" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>7412.7</v>
+      </c>
+      <c r="G287" t="n">
+        <v>273.8616666666664</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="C288" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="D288" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="E288" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="F288" t="n">
+        <v>6932</v>
+      </c>
+      <c r="G288" t="n">
+        <v>273.9266666666664</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>277</v>
+      </c>
+      <c r="C289" t="n">
+        <v>277</v>
+      </c>
+      <c r="D289" t="n">
+        <v>277</v>
+      </c>
+      <c r="E289" t="n">
+        <v>277</v>
+      </c>
+      <c r="F289" t="n">
+        <v>20</v>
+      </c>
+      <c r="G289" t="n">
+        <v>273.9966666666664</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>277.3</v>
+      </c>
+      <c r="C290" t="n">
+        <v>277.9</v>
+      </c>
+      <c r="D290" t="n">
+        <v>277.9</v>
+      </c>
+      <c r="E290" t="n">
+        <v>277.3</v>
+      </c>
+      <c r="F290" t="n">
+        <v>16579</v>
+      </c>
+      <c r="G290" t="n">
+        <v>274.0816666666664</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>276</v>
+      </c>
+      <c r="C291" t="n">
+        <v>276</v>
+      </c>
+      <c r="D291" t="n">
+        <v>276</v>
+      </c>
+      <c r="E291" t="n">
+        <v>276</v>
+      </c>
+      <c r="F291" t="n">
+        <v>26.8162</v>
+      </c>
+      <c r="G291" t="n">
+        <v>274.1349999999998</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1.004897360703812</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="C286" t="n">
-        <v>276.4</v>
-      </c>
-      <c r="D286" t="n">
-        <v>276.4</v>
-      </c>
-      <c r="E286" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="F286" t="n">
-        <v>7412.7</v>
-      </c>
-      <c r="G286" t="n">
-        <v>273.8616666666664</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="C287" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="D287" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="E287" t="n">
-        <v>276.7</v>
-      </c>
-      <c r="F287" t="n">
-        <v>6932</v>
-      </c>
-      <c r="G287" t="n">
-        <v>273.9266666666664</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>277</v>
-      </c>
-      <c r="C288" t="n">
-        <v>277</v>
-      </c>
-      <c r="D288" t="n">
-        <v>277</v>
-      </c>
-      <c r="E288" t="n">
-        <v>277</v>
-      </c>
-      <c r="F288" t="n">
-        <v>20</v>
-      </c>
-      <c r="G288" t="n">
-        <v>273.9966666666664</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>277.3</v>
-      </c>
-      <c r="C289" t="n">
-        <v>277.9</v>
-      </c>
-      <c r="D289" t="n">
-        <v>277.9</v>
-      </c>
-      <c r="E289" t="n">
-        <v>277.3</v>
-      </c>
-      <c r="F289" t="n">
-        <v>16579</v>
-      </c>
-      <c r="G289" t="n">
-        <v>274.0816666666664</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>276</v>
-      </c>
-      <c r="C290" t="n">
-        <v>276</v>
-      </c>
-      <c r="D290" t="n">
-        <v>276</v>
-      </c>
-      <c r="E290" t="n">
-        <v>276</v>
-      </c>
-      <c r="F290" t="n">
-        <v>26.8162</v>
-      </c>
-      <c r="G290" t="n">
-        <v>274.1349999999998</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="C291" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="D291" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="E291" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="F291" t="n">
-        <v>70.5903</v>
-      </c>
-      <c r="G291" t="n">
-        <v>274.1799999999998</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>276.2</v>
+        <v>275.5</v>
       </c>
       <c r="C292" t="n">
-        <v>276.2</v>
+        <v>275.5</v>
       </c>
       <c r="D292" t="n">
-        <v>276.2</v>
+        <v>275.5</v>
       </c>
       <c r="E292" t="n">
-        <v>276.2</v>
+        <v>275.5</v>
       </c>
       <c r="F292" t="n">
-        <v>319.8959</v>
+        <v>70.5903</v>
       </c>
       <c r="G292" t="n">
-        <v>274.2466666666665</v>
+        <v>274.1799999999998</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
@@ -11006,16 +10880,16 @@
         <v>276.2</v>
       </c>
       <c r="F293" t="n">
-        <v>142.2809</v>
+        <v>319.8959</v>
       </c>
       <c r="G293" t="n">
-        <v>274.3033333333332</v>
+        <v>274.2466666666665</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
@@ -11032,25 +10906,25 @@
         <v>276.2</v>
       </c>
       <c r="C294" t="n">
-        <v>274.5</v>
+        <v>276.2</v>
       </c>
       <c r="D294" t="n">
         <v>276.2</v>
       </c>
       <c r="E294" t="n">
-        <v>274.5</v>
+        <v>276.2</v>
       </c>
       <c r="F294" t="n">
-        <v>1917.1778</v>
+        <v>142.2809</v>
       </c>
       <c r="G294" t="n">
-        <v>274.3366666666665</v>
+        <v>274.3033333333332</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
@@ -11064,22 +10938,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>276</v>
+        <v>276.2</v>
       </c>
       <c r="C295" t="n">
-        <v>276</v>
+        <v>274.5</v>
       </c>
       <c r="D295" t="n">
-        <v>276</v>
+        <v>276.2</v>
       </c>
       <c r="E295" t="n">
-        <v>276</v>
+        <v>274.5</v>
       </c>
       <c r="F295" t="n">
-        <v>4010</v>
+        <v>1917.1778</v>
       </c>
       <c r="G295" t="n">
-        <v>274.3899999999998</v>
+        <v>274.3366666666665</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11099,22 +10973,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>274.8</v>
+        <v>276</v>
       </c>
       <c r="C296" t="n">
-        <v>274.8</v>
+        <v>276</v>
       </c>
       <c r="D296" t="n">
-        <v>274.8</v>
+        <v>276</v>
       </c>
       <c r="E296" t="n">
-        <v>274.8</v>
+        <v>276</v>
       </c>
       <c r="F296" t="n">
-        <v>2000</v>
+        <v>4010</v>
       </c>
       <c r="G296" t="n">
-        <v>274.3683333333332</v>
+        <v>274.3899999999998</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11134,22 +11008,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>275.9</v>
+        <v>274.8</v>
       </c>
       <c r="C297" t="n">
-        <v>275.9</v>
+        <v>274.8</v>
       </c>
       <c r="D297" t="n">
-        <v>275.9</v>
+        <v>274.8</v>
       </c>
       <c r="E297" t="n">
-        <v>275.9</v>
+        <v>274.8</v>
       </c>
       <c r="F297" t="n">
-        <v>2228.0799</v>
+        <v>2000</v>
       </c>
       <c r="G297" t="n">
-        <v>274.4216666666665</v>
+        <v>274.3683333333332</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11172,19 +11046,19 @@
         <v>275.9</v>
       </c>
       <c r="C298" t="n">
-        <v>276</v>
+        <v>275.9</v>
       </c>
       <c r="D298" t="n">
-        <v>276</v>
+        <v>275.9</v>
       </c>
       <c r="E298" t="n">
         <v>275.9</v>
       </c>
       <c r="F298" t="n">
-        <v>4500.9</v>
+        <v>2228.0799</v>
       </c>
       <c r="G298" t="n">
-        <v>274.4766666666665</v>
+        <v>274.4216666666665</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11204,7 +11078,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>276</v>
+        <v>275.9</v>
       </c>
       <c r="C299" t="n">
         <v>276</v>
@@ -11213,13 +11087,13 @@
         <v>276</v>
       </c>
       <c r="E299" t="n">
-        <v>276</v>
+        <v>275.9</v>
       </c>
       <c r="F299" t="n">
-        <v>599</v>
+        <v>4500.9</v>
       </c>
       <c r="G299" t="n">
-        <v>274.5316666666665</v>
+        <v>274.4766666666665</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11239,22 +11113,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C300" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D300" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E300" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F300" t="n">
-        <v>618.7058</v>
+        <v>599</v>
       </c>
       <c r="G300" t="n">
-        <v>274.5699999999998</v>
+        <v>274.5316666666665</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11274,22 +11148,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C301" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D301" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E301" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F301" t="n">
-        <v>1345</v>
+        <v>618.7058</v>
       </c>
       <c r="G301" t="n">
-        <v>274.6249999999998</v>
+        <v>274.5699999999998</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11321,10 +11195,10 @@
         <v>276</v>
       </c>
       <c r="F302" t="n">
-        <v>2019</v>
+        <v>1345</v>
       </c>
       <c r="G302" t="n">
-        <v>274.6816666666665</v>
+        <v>274.6249999999998</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11344,22 +11218,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>275.6</v>
+        <v>276</v>
       </c>
       <c r="C303" t="n">
-        <v>275.6</v>
+        <v>276</v>
       </c>
       <c r="D303" t="n">
-        <v>275.6</v>
+        <v>276</v>
       </c>
       <c r="E303" t="n">
-        <v>275.6</v>
+        <v>276</v>
       </c>
       <c r="F303" t="n">
-        <v>411.194</v>
+        <v>2019</v>
       </c>
       <c r="G303" t="n">
-        <v>274.7249999999998</v>
+        <v>274.6816666666665</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11391,10 +11265,10 @@
         <v>275.6</v>
       </c>
       <c r="F304" t="n">
-        <v>1588.806</v>
+        <v>411.194</v>
       </c>
       <c r="G304" t="n">
-        <v>274.7683333333331</v>
+        <v>274.7249999999998</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11414,22 +11288,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>275.5</v>
+        <v>275.6</v>
       </c>
       <c r="C305" t="n">
-        <v>275.5</v>
+        <v>275.6</v>
       </c>
       <c r="D305" t="n">
-        <v>275.5</v>
+        <v>275.6</v>
       </c>
       <c r="E305" t="n">
-        <v>275.5</v>
+        <v>275.6</v>
       </c>
       <c r="F305" t="n">
-        <v>1161.6757</v>
+        <v>1588.806</v>
       </c>
       <c r="G305" t="n">
-        <v>274.8099999999998</v>
+        <v>274.7683333333331</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11461,10 +11335,10 @@
         <v>275.5</v>
       </c>
       <c r="F306" t="n">
-        <v>1071</v>
+        <v>1161.6757</v>
       </c>
       <c r="G306" t="n">
-        <v>274.8283333333331</v>
+        <v>274.8099999999998</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11484,22 +11358,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>275.6</v>
+        <v>275.5</v>
       </c>
       <c r="C307" t="n">
-        <v>275.6</v>
+        <v>275.5</v>
       </c>
       <c r="D307" t="n">
-        <v>275.6</v>
+        <v>275.5</v>
       </c>
       <c r="E307" t="n">
-        <v>275.6</v>
+        <v>275.5</v>
       </c>
       <c r="F307" t="n">
-        <v>411</v>
+        <v>1071</v>
       </c>
       <c r="G307" t="n">
-        <v>274.8699999999998</v>
+        <v>274.8283333333331</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11514,6 +11388,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="C308" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="D308" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="E308" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="F308" t="n">
+        <v>411</v>
+      </c>
+      <c r="G308" t="n">
+        <v>274.8699999999998</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-24 BackTest MTL.xlsx
+++ b/BackTest/2020-01-24 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N376"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-36401.71202800998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-37033.87082800998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-36138.78085550998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-22228.09867876998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-26540.76897876998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-26538.76897876998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-31332.46707876998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-29560.79207876998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-29560.79207876998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-25533.36297876998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-25664.16297876998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-25453.16297876998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-24794.95417876998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-1800.943478769976</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-32283.85853594998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-32405.79483594998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-32391.29695759998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-39566.66905759997</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>-33648.51395759998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-42498.51395759998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-48854.88535759998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-48835.21335759998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-48824.21335759998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-48654.21335759998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-49670.07795759998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>-57502.17916702</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,15 @@
         <v>-57528.05726702001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4411,15 @@
         <v>-59512.07476702001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>-62906.37436702001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,15 @@
         <v>-69158.00036702001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,15 @@
         <v>-69158.00036702001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4543,15 @@
         <v>-75505.51706702</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4609,15 @@
         <v>-74535.22606702</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4642,15 @@
         <v>-76828.96926702</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4675,15 @@
         <v>-78641.51106702001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>-107627.51900342</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4774,15 @@
         <v>-107607.50098541</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,15 @@
         <v>-107607.50098541</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +4972,15 @@
         <v>-92266.7063713</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +8538,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8571,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +8604,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +8637,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +8670,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +8703,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +8736,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8769,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8802,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8835,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8868,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8901,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8934,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +8967,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9000,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9033,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9066,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9099,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9132,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9165,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +9198,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +9231,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +9264,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9297,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9330,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9363,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9396,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9429,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9462,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9495,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9528,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9561,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9594,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9627,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9660,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9693,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9726,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9759,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9792,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9825,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +9858,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +9891,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +9924,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +9957,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +9990,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10023,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10056,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10968,22 +10087,15 @@
         <v>-313131.70919568</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="K294" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11008,508 +10120,451 @@
         <v>-306653.21019568</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="K295" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="L295" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>274</v>
+      </c>
+      <c r="C296" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D296" t="n">
+        <v>274</v>
+      </c>
+      <c r="E296" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F296" t="n">
+        <v>50</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="C297" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D297" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="E297" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F297" t="n">
+        <v>4.3882</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="C298" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D298" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="E298" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F298" t="n">
+        <v>291.9327</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="C299" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D299" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="E299" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1859.6067</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="C300" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D300" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="E300" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1487.7039</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="C301" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="D301" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="E301" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="F301" t="n">
+        <v>602.2412</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-307305.45139568</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>273</v>
+      </c>
+      <c r="C302" t="n">
+        <v>273</v>
+      </c>
+      <c r="D302" t="n">
+        <v>273</v>
+      </c>
+      <c r="E302" t="n">
+        <v>273</v>
+      </c>
+      <c r="F302" t="n">
+        <v>11.6359</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-307293.81549568</v>
+      </c>
+      <c r="H302" t="n">
+        <v>2</v>
+      </c>
+      <c r="I302" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="J302" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>273</v>
+      </c>
+      <c r="C303" t="n">
+        <v>273</v>
+      </c>
+      <c r="D303" t="n">
+        <v>273</v>
+      </c>
+      <c r="E303" t="n">
+        <v>273</v>
+      </c>
+      <c r="F303" t="n">
+        <v>26.2287</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-307293.81549568</v>
+      </c>
+      <c r="H303" t="n">
+        <v>2</v>
+      </c>
+      <c r="I303" t="n">
+        <v>273</v>
+      </c>
+      <c r="J303" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="K303" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>274</v>
-      </c>
-      <c r="C296" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D296" t="n">
-        <v>274</v>
-      </c>
-      <c r="E296" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F296" t="n">
-        <v>50</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="L296" t="inlineStr">
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>273</v>
+      </c>
+      <c r="C304" t="n">
+        <v>273</v>
+      </c>
+      <c r="D304" t="n">
+        <v>273</v>
+      </c>
+      <c r="E304" t="n">
+        <v>273</v>
+      </c>
+      <c r="F304" t="n">
+        <v>199.9732</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-307293.81549568</v>
+      </c>
+      <c r="H304" t="n">
+        <v>2</v>
+      </c>
+      <c r="I304" t="n">
+        <v>273</v>
+      </c>
+      <c r="J304" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="C297" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D297" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="E297" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F297" t="n">
-        <v>4.3882</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="C298" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D298" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="E298" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F298" t="n">
-        <v>291.9327</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="C299" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D299" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="E299" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F299" t="n">
-        <v>1859.6067</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="C300" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D300" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="E300" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F300" t="n">
-        <v>1487.7039</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="C301" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="D301" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="E301" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="F301" t="n">
-        <v>602.2412</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-307305.45139568</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="K301" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="C305" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="D305" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="E305" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3723.4327</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-303570.38279568</v>
+      </c>
+      <c r="H305" t="n">
+        <v>2</v>
+      </c>
+      <c r="I305" t="n">
         <v>273</v>
       </c>
-      <c r="C302" t="n">
+      <c r="J305" t="n">
         <v>273</v>
       </c>
-      <c r="D302" t="n">
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="C306" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E306" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="F306" t="n">
+        <v>296.4399</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-303866.82269568</v>
+      </c>
+      <c r="H306" t="n">
+        <v>2</v>
+      </c>
+      <c r="I306" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="J306" t="n">
         <v>273</v>
       </c>
-      <c r="E302" t="n">
-        <v>273</v>
-      </c>
-      <c r="F302" t="n">
-        <v>11.6359</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-307293.81549568</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="K302" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="L302" t="inlineStr">
+      <c r="K306" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="C307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="F307" t="n">
+        <v>712.4648999999999</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-303866.82269568</v>
+      </c>
+      <c r="H307" t="n">
+        <v>2</v>
+      </c>
+      <c r="I307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="J307" t="n">
         <v>273</v>
       </c>
-      <c r="C303" t="n">
-        <v>273</v>
-      </c>
-      <c r="D303" t="n">
-        <v>273</v>
-      </c>
-      <c r="E303" t="n">
-        <v>273</v>
-      </c>
-      <c r="F303" t="n">
-        <v>26.2287</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-307293.81549568</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="n">
-        <v>273</v>
-      </c>
-      <c r="K303" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="L303" t="inlineStr">
+      <c r="K307" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>273</v>
-      </c>
-      <c r="C304" t="n">
-        <v>273</v>
-      </c>
-      <c r="D304" t="n">
-        <v>273</v>
-      </c>
-      <c r="E304" t="n">
-        <v>273</v>
-      </c>
-      <c r="F304" t="n">
-        <v>199.9732</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-307293.81549568</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="n">
-        <v>273</v>
-      </c>
-      <c r="K304" t="n">
-        <v>273</v>
-      </c>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="C305" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="D305" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="E305" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="F305" t="n">
-        <v>3723.4327</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-303570.38279568</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
-      <c r="J305" t="n">
-        <v>273</v>
-      </c>
-      <c r="K305" t="n">
-        <v>273</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="C306" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="D306" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="E306" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="F306" t="n">
-        <v>296.4399</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-303866.82269568</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="K306" t="n">
-        <v>273</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="C307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="D307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="E307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="F307" t="n">
-        <v>712.4648999999999</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-303866.82269568</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="K307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11534,26 +10589,15 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="K308" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11578,26 +10622,15 @@
         <v>-303666.82269568</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="K309" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11622,22 +10655,15 @@
         <v>-304311.28099568</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="K310" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11662,26 +10688,21 @@
         <v>-306087.71459568</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="n">
         <v>273.1</v>
       </c>
-      <c r="K311" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L311" t="inlineStr">
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11706,26 +10727,21 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="n">
         <v>272.6</v>
       </c>
-      <c r="K312" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L312" t="inlineStr">
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11750,26 +10766,19 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="K313" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L313" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11794,26 +10803,21 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="n">
         <v>273.6</v>
       </c>
-      <c r="K314" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L314" t="inlineStr">
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11838,26 +10842,21 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="n">
         <v>273.6</v>
       </c>
-      <c r="K315" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L315" t="inlineStr">
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11882,26 +10881,21 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="n">
         <v>273.6</v>
       </c>
-      <c r="K316" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L316" t="inlineStr">
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11926,26 +10920,21 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="n">
         <v>274</v>
       </c>
-      <c r="K317" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L317" t="inlineStr">
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11970,26 +10959,19 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="n">
-        <v>274</v>
-      </c>
-      <c r="K318" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L318" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12014,26 +10996,21 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="n">
         <v>274</v>
       </c>
-      <c r="K319" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L319" t="inlineStr">
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12058,26 +11035,21 @@
         <v>-307110.14899568</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="n">
         <v>274</v>
       </c>
-      <c r="K320" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L320" t="inlineStr">
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12102,26 +11074,21 @@
         <v>-309110.14899568</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="n">
         <v>272.9</v>
       </c>
-      <c r="K321" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12146,26 +11113,21 @@
         <v>-321329.57459568</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="n">
         <v>272.8</v>
       </c>
-      <c r="K322" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12190,26 +11152,21 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="n">
         <v>271.7</v>
       </c>
-      <c r="K323" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12234,26 +11191,19 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="n">
-        <v>273.3</v>
-      </c>
-      <c r="K324" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L324" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12278,26 +11228,19 @@
         <v>-320366.53879568</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="n">
-        <v>273.3</v>
-      </c>
-      <c r="K325" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L325" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12322,26 +11265,19 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="n">
-        <v>274</v>
-      </c>
-      <c r="K326" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L326" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12366,26 +11302,19 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="n">
-        <v>275</v>
-      </c>
-      <c r="K327" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L327" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12410,26 +11339,19 @@
         <v>-291584.57209568</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
-        <v>275</v>
-      </c>
-      <c r="K328" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L328" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12456,22 +11378,17 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L329" t="inlineStr">
+      <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12498,22 +11415,17 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L330" t="inlineStr">
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12540,22 +11452,17 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L331" t="inlineStr">
+      <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12580,26 +11487,19 @@
         <v>-301040.66209568</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="n">
-        <v>275.9</v>
-      </c>
-      <c r="K332" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L332" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12624,26 +11524,21 @@
         <v>-301040.66209568</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="n">
         <v>275.9</v>
       </c>
-      <c r="K333" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L333" t="inlineStr">
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12668,26 +11563,21 @@
         <v>-302924.86119568</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="n">
         <v>275.9</v>
       </c>
-      <c r="K334" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L334" t="inlineStr">
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12712,26 +11602,21 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="n">
         <v>274</v>
       </c>
-      <c r="K335" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L335" t="inlineStr">
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12756,26 +11641,21 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="n">
-        <v>0</v>
-      </c>
-      <c r="J336" t="n">
         <v>274.6</v>
       </c>
-      <c r="K336" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L336" t="inlineStr">
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12800,26 +11680,21 @@
         <v>-304609.96119568</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="n">
-        <v>0</v>
-      </c>
-      <c r="J337" t="n">
         <v>274.6</v>
       </c>
-      <c r="K337" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L337" t="inlineStr">
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12844,26 +11719,21 @@
         <v>-297388.36119568</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="n">
         <v>273.6</v>
       </c>
-      <c r="K338" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L338" t="inlineStr">
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12888,26 +11758,21 @@
         <v>-296982.11119568</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" t="n">
         <v>274.5</v>
       </c>
-      <c r="K339" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L339" t="inlineStr">
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12932,26 +11797,19 @@
         <v>-296982.11119568</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
-      <c r="J340" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="K340" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L340" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12976,26 +11834,19 @@
         <v>-294153.8111956801</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
-      <c r="J341" t="n">
-        <v>275.1</v>
-      </c>
-      <c r="K341" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L341" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13020,26 +11871,19 @@
         <v>-287002.8111956801</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
-      <c r="J342" t="n">
-        <v>275.3</v>
-      </c>
-      <c r="K342" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L342" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13066,22 +11910,17 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L343" t="inlineStr">
+      <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13106,26 +11945,19 @@
         <v>-288829.3358956801</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
-      <c r="J344" t="n">
-        <v>274.7</v>
-      </c>
-      <c r="K344" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L344" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13152,22 +11984,17 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13194,22 +12021,17 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L346" t="inlineStr">
+      <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13236,22 +12058,17 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L347" t="inlineStr">
+      <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13278,22 +12095,17 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L348" t="inlineStr">
+      <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13320,22 +12132,17 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L349" t="inlineStr">
+      <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13360,26 +12167,21 @@
         <v>-257983.0423956801</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="n">
-        <v>0</v>
-      </c>
-      <c r="J350" t="n">
         <v>276</v>
       </c>
-      <c r="K350" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L350" t="inlineStr">
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13404,26 +12206,19 @@
         <v>-257663.1464956801</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
-      <c r="J351" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="K351" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L351" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13448,26 +12243,19 @@
         <v>-257663.1464956801</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
-      <c r="J352" t="n">
-        <v>276.2</v>
-      </c>
-      <c r="K352" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L352" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13494,22 +12282,17 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L353" t="inlineStr">
+      <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13536,22 +12319,17 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L354" t="inlineStr">
+      <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13578,22 +12356,17 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L355" t="inlineStr">
+      <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13620,22 +12393,17 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L356" t="inlineStr">
+      <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13662,22 +12430,17 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L357" t="inlineStr">
+      <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13704,22 +12467,17 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L358" t="inlineStr">
+      <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13746,22 +12504,17 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L359" t="inlineStr">
+      <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13788,22 +12541,17 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L360" t="inlineStr">
+      <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13830,22 +12578,17 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L361" t="inlineStr">
+      <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -13872,22 +12615,17 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L362" t="inlineStr">
+      <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -13914,22 +12652,17 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L363" t="inlineStr">
+      <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -13956,22 +12689,17 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L364" t="inlineStr">
+      <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -13998,22 +12726,17 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L365" t="inlineStr">
+      <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -14040,22 +12763,17 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L366" t="inlineStr">
+      <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -14082,22 +12800,17 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L367" t="inlineStr">
+      <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -14124,22 +12837,17 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L368" t="inlineStr">
+      <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -14166,22 +12874,17 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L369" t="inlineStr">
+      <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14208,22 +12911,17 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L370" t="inlineStr">
+      <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14250,22 +12948,17 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L371" t="inlineStr">
+      <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14292,22 +12985,17 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L372" t="inlineStr">
+      <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14334,22 +13022,17 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L373" t="inlineStr">
+      <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -14376,22 +13059,17 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L374" t="inlineStr">
+      <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -14418,22 +13096,17 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L375" t="inlineStr">
+      <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -14460,24 +13133,19 @@
       <c r="H376" t="n">
         <v>0</v>
       </c>
-      <c r="I376" t="n">
-        <v>0</v>
-      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="L376" t="inlineStr">
+      <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M376" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest MTL.xlsx
+++ b/BackTest/2020-01-24 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-43567.76872800999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-36401.71202800998</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-37033.87082800998</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-36138.78085550998</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-22228.09867876998</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-26540.76897876998</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-26538.76897876998</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-31332.46707876998</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-29560.79207876998</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-29560.79207876998</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-22071.66297876998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-22069.66297876998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-25533.36297876998</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-25664.16297876998</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-25453.16297876998</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-24380.18397876998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-24790.94987876998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-24794.95417876998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-24794.95417876998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-24794.95417876998</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-24794.95417876998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-30671.12727876998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-29571.03947876998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-33682.79697876998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-24139.75117876998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1750.943478769976</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1750.943478769976</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1800.943478769976</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-32283.85853594998</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-32405.79483594998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-32405.79483594998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-32391.29695759998</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-39566.66905759997</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-33648.51395759998</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-42498.51395759998</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-42398.51395759998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-43404.21705759998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-43404.21705759998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-52678.17755759998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-46698.17755759998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-48854.88535759998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-48835.21335759998</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-48824.21335759998</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-48654.21335759998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-49670.07795759998</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-49670.07795759998</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-66075.5879576</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-68246.1690576</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-71201.5809576</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-71201.5809576</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-71201.5809576</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-74601.46215760001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-57502.17916702</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-57528.05726702001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-57528.05726702001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-73465.88946702001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-59512.07476702001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-62906.37436702001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-69158.00036702001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-69158.00036702001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-75505.51706702</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-74535.22606702</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-76828.96926702</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-78641.51106702001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-107627.51900342</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-107607.50098541</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-107607.50098541</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-92266.7063713</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -9955,11 +9955,17 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +9998,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10035,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10072,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10105,17 @@
         <v>-313131.70919568</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>272.5</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10144,17 @@
         <v>-306653.21019568</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10187,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10224,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10261,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10298,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10331,17 @@
         <v>-306703.21019568</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>272.7</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10370,17 @@
         <v>-307305.45139568</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>272.7</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,15 +10409,17 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>272.6</v>
       </c>
-      <c r="J302" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,17 +10448,15 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>273</v>
       </c>
-      <c r="J303" t="n">
-        <v>272.6</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L303" t="n">
@@ -10429,17 +10487,15 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>273</v>
       </c>
-      <c r="J304" t="n">
-        <v>272.6</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L304" t="n">
@@ -10470,15 +10526,17 @@
         <v>-303570.38279568</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>273</v>
       </c>
-      <c r="J305" t="n">
-        <v>273</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10507,17 +10565,15 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>274.4</v>
       </c>
-      <c r="J306" t="n">
-        <v>273</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L306" t="n">
@@ -10548,17 +10604,15 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>273.1</v>
       </c>
-      <c r="J307" t="n">
-        <v>273</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L307" t="n">
@@ -10589,11 +10643,17 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>273.1</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10622,11 +10682,17 @@
         <v>-303666.82269568</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>273.1</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10655,11 +10721,17 @@
         <v>-304311.28099568</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>273.6</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10688,7 +10760,7 @@
         <v>-306087.71459568</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>273.1</v>
@@ -10696,7 +10768,7 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
@@ -10727,7 +10799,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>272.6</v>
@@ -10766,9 +10838,11 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>273.6</v>
+      </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -10803,7 +10877,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>273.6</v>
@@ -10842,7 +10916,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>273.6</v>
@@ -10881,7 +10955,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>273.6</v>
@@ -10920,7 +10994,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>274</v>
@@ -10959,9 +11033,11 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>274</v>
+      </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -10996,7 +11072,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>274</v>
@@ -11035,7 +11111,7 @@
         <v>-307110.14899568</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>274</v>
@@ -11074,11 +11150,9 @@
         <v>-309110.14899568</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>272.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11113,11 +11187,9 @@
         <v>-321329.57459568</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>272.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11152,11 +11224,9 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>271.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -11191,9 +11261,11 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>273.3</v>
+      </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11265,9 +11337,11 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>274</v>
+      </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -11524,11 +11598,9 @@
         <v>-301040.66209568</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>275.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -11563,11 +11635,9 @@
         <v>-302924.86119568</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>275.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -11602,11 +11672,9 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -11641,11 +11709,9 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>274.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -11680,11 +11746,9 @@
         <v>-304609.96119568</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>274.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -11719,11 +11783,9 @@
         <v>-297388.36119568</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>273.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -11758,11 +11820,9 @@
         <v>-296982.11119568</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>274.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -12167,11 +12227,9 @@
         <v>-257983.0423956801</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -13146,6 +13204,6 @@
       <c r="M376" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest MTL.xlsx
+++ b/BackTest/2020-01-24 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-43567.76872800999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-22071.66297876998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-22069.66297876998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-25533.36297876998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-25664.16297876998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-25453.16297876998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-24380.18397876998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-24790.94987876998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-23656.95417876998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-24794.95417876998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-24794.95417876998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-24794.95417876998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-24794.95417876998</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-30671.12727876998</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-29571.03947876998</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-33682.79697876998</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-24139.75117876998</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1750.943478769976</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1750.943478769976</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1800.943478769976</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-32405.79483594998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-32405.79483594998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-32391.29695759998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-39566.66905759997</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-33648.51395759998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-42498.51395759998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-42398.51395759998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-43404.21705759998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-43404.21705759998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-52678.17755759998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-46698.17755759998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-48854.88535759998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-48835.21335759998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-48824.21335759998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-48654.21335759998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-49670.07795759998</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-49670.07795759998</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-66075.5879576</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-68246.1690576</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-71201.5809576</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-71201.5809576</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-71201.5809576</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-74601.46215760001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-57502.17916702</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-57528.05726702001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-57528.05726702001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-73465.88946702001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-59512.07476702001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-62906.37436702001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-69158.00036702001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-137289.55215329</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-137289.55215329</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-137266.14979699</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-143753.27499699</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-146374.05069699</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-146374.05069699</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-165352.649815</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-165352.649815</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-169342.184915</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-169342.184915</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-168283.184915</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-168283.184915</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-170561.211815</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-148965.8897713</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-146485.4544712999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-148199.9202713</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-151066.4515712999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-151066.4515712999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-157066.4515712999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-160066.4515712999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-160206.4515712999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-160206.4515712999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-168249.3484712999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-197558.5944712999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-199558.5944712999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9724,11 +9724,17 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>273.6</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +9767,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9800,17 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9839,17 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9878,17 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9917,17 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9956,17 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9963,7 +10003,7 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L290" t="n">
@@ -9994,9 +10034,11 @@
         <v>-313104.11099568</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10031,9 +10073,11 @@
         <v>-312967.84019568</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>272.2</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10068,9 +10112,11 @@
         <v>-313540.98399568</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10331,11 +10377,9 @@
         <v>-306703.21019568</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>272.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10370,11 +10414,9 @@
         <v>-307305.45139568</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>272.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10409,11 +10451,9 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>272.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10448,11 +10488,9 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -10487,11 +10525,9 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -10526,11 +10562,9 @@
         <v>-303570.38279568</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -10565,11 +10599,9 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>274.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -10604,11 +10636,9 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>273.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -10643,11 +10673,9 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>273.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -10682,11 +10710,9 @@
         <v>-303666.82269568</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>273.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -10721,11 +10747,9 @@
         <v>-304311.28099568</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>273.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -10760,11 +10784,9 @@
         <v>-306087.71459568</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>273.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -10799,11 +10821,9 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>272.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -10838,11 +10858,9 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>273.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -10877,11 +10895,9 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>273.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -10916,11 +10932,9 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>273.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -10955,11 +10969,9 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>273.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -10994,11 +11006,9 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
@@ -11033,11 +11043,9 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -11072,11 +11080,9 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
@@ -11111,11 +11117,9 @@
         <v>-307110.14899568</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11187,9 +11191,11 @@
         <v>-321329.57459568</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>272.8</v>
+      </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11261,11 +11267,9 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>273.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -11337,11 +11341,9 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12190,18 +12192,16 @@
         <v>-257912.4520956801</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
@@ -12227,15 +12227,11 @@
         <v>-257983.0423956801</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12268,11 +12264,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12305,11 +12297,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12342,11 +12330,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12379,11 +12363,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12416,11 +12396,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12453,11 +12429,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12490,11 +12462,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12527,11 +12495,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12564,11 +12528,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12601,11 +12561,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12638,11 +12594,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12675,11 +12627,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12712,11 +12660,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12749,11 +12693,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12786,11 +12726,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12823,11 +12759,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12860,11 +12792,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12897,11 +12825,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12934,11 +12858,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12971,11 +12891,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13008,11 +12924,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13045,11 +12957,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13082,11 +12990,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13119,11 +13023,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13056,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13193,17 +13089,13 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
       <c r="M376" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest MTL.xlsx
+++ b/BackTest/2020-01-24 BackTest MTL.xlsx
@@ -1771,7 +1771,7 @@
         <v>-22069.66297876998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-25533.36297876998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-25664.16297876998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-25453.16297876998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-24790.94987876998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1750.943478769976</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1750.943478769976</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1800.943478769976</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1773.306178769976</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1773.306178769976</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1592.359021230024</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1592.359021230024</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1392.359021230024</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-10128.06707876998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-25128.06707876998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-25128.06707876998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-32283.85853594998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-32283.85853594998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-32405.79483594998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-62818.98135759999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-63791.18895759999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-137289.55215329</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-137289.55215329</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-137266.14979699</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-143753.27499699</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-146374.05069699</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-146374.05069699</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-165352.649815</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-165352.649815</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-169342.184915</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-169342.184915</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-168283.184915</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-168283.184915</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-170561.211815</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-148965.8897713</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-146485.4544712999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-148199.9202713</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-151066.4515712999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-151066.4515712999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-157066.4515712999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-160066.4515712999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-160206.4515712999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-160206.4515712999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-168249.3484712999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-197558.5944712999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-199558.5944712999</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9724,1075 +9724,987 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C284" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D284" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E284" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F284" t="n">
+        <v>5101.7567</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-302362.96359568</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C285" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D285" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E285" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F285" t="n">
+        <v>124.1772</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-302362.96359568</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C286" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D286" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E286" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F286" t="n">
+        <v>4781.5804</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-302362.96359568</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C287" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D287" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E287" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F287" t="n">
+        <v>219.3929</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-302362.96359568</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C288" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D288" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E288" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F288" t="n">
+        <v>5094.5882</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-302362.96359568</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C289" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D289" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E289" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F289" t="n">
+        <v>195.0585</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-302362.96359568</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>272.4</v>
+      </c>
+      <c r="C290" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D290" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E290" t="n">
+        <v>272.4</v>
+      </c>
+      <c r="F290" t="n">
+        <v>3564.9193</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-302362.96359568</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="C291" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="D291" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="E291" t="n">
+        <v>272.2</v>
+      </c>
+      <c r="F291" t="n">
+        <v>10741.1474</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-313104.11099568</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C292" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D292" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E292" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F292" t="n">
+        <v>136.2708</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-312967.84019568</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="C293" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="D293" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="E293" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="F293" t="n">
+        <v>573.1438000000001</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-313540.98399568</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C294" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="D294" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E294" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F294" t="n">
+        <v>409.2748</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-313131.70919568</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="C295" t="n">
+        <v>276.1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>276.1</v>
+      </c>
+      <c r="E295" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6478.499</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-306653.21019568</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>274</v>
+      </c>
+      <c r="C296" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D296" t="n">
+        <v>274</v>
+      </c>
+      <c r="E296" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F296" t="n">
+        <v>50</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="C297" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D297" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="E297" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F297" t="n">
+        <v>4.3882</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="C298" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D298" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="E298" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F298" t="n">
+        <v>291.9327</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="C299" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D299" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="E299" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1859.6067</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="C300" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="D300" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="E300" t="n">
+        <v>272.7</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1487.7039</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-306703.21019568</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="C301" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="D301" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="E301" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="F301" t="n">
+        <v>602.2412</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-307305.45139568</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>273</v>
+      </c>
+      <c r="C302" t="n">
+        <v>273</v>
+      </c>
+      <c r="D302" t="n">
+        <v>273</v>
+      </c>
+      <c r="E302" t="n">
+        <v>273</v>
+      </c>
+      <c r="F302" t="n">
+        <v>11.6359</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-307293.81549568</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>273</v>
+      </c>
+      <c r="C303" t="n">
+        <v>273</v>
+      </c>
+      <c r="D303" t="n">
+        <v>273</v>
+      </c>
+      <c r="E303" t="n">
+        <v>273</v>
+      </c>
+      <c r="F303" t="n">
+        <v>26.2287</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-307293.81549568</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>273</v>
+      </c>
+      <c r="C304" t="n">
+        <v>273</v>
+      </c>
+      <c r="D304" t="n">
+        <v>273</v>
+      </c>
+      <c r="E304" t="n">
+        <v>273</v>
+      </c>
+      <c r="F304" t="n">
+        <v>199.9732</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-307293.81549568</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>273</v>
+      </c>
+      <c r="J304" t="n">
+        <v>273</v>
+      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="C305" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="D305" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="E305" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3723.4327</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-303570.38279568</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>273</v>
+      </c>
+      <c r="J305" t="n">
+        <v>273</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="C306" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E306" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="F306" t="n">
+        <v>296.4399</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-303866.82269568</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>274.4</v>
+      </c>
+      <c r="J306" t="n">
+        <v>273</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="C307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="F307" t="n">
+        <v>712.4648999999999</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-303866.82269568</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="C308" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E308" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="F308" t="n">
+        <v>641.2184</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-303866.82269568</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="C309" t="n">
         <v>273.6</v>
       </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
+      <c r="D309" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="E309" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="F309" t="n">
+        <v>200</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-303666.82269568</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="C310" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="E310" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="F310" t="n">
+        <v>644.4583</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-304311.28099568</v>
+      </c>
+      <c r="H310" t="n">
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="J310" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>273</v>
+      </c>
+      <c r="C311" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="D311" t="n">
+        <v>273</v>
+      </c>
+      <c r="E311" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1776.4336</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-306087.71459568</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>273.1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K311" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C284" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D284" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E284" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F284" t="n">
-        <v>5101.7567</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-302362.96359568</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C285" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D285" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E285" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F285" t="n">
-        <v>124.1772</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-302362.96359568</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C286" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D286" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E286" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F286" t="n">
-        <v>4781.5804</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-302362.96359568</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C287" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D287" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E287" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F287" t="n">
-        <v>219.3929</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-302362.96359568</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C288" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D288" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E288" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F288" t="n">
-        <v>5094.5882</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-302362.96359568</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C289" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D289" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E289" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F289" t="n">
-        <v>195.0585</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-302362.96359568</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>272.4</v>
-      </c>
-      <c r="C290" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D290" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E290" t="n">
-        <v>272.4</v>
-      </c>
-      <c r="F290" t="n">
-        <v>3564.9193</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-302362.96359568</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="C291" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="D291" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="E291" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="F291" t="n">
-        <v>10741.1474</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-313104.11099568</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C292" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D292" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E292" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F292" t="n">
-        <v>136.2708</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-312967.84019568</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>272.2</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="C293" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="D293" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="E293" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="F293" t="n">
-        <v>573.1438000000001</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-313540.98399568</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C294" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D294" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="E294" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F294" t="n">
-        <v>409.2748</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-313131.70919568</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="C295" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="D295" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="E295" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="F295" t="n">
-        <v>6478.499</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-306653.21019568</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>274</v>
-      </c>
-      <c r="C296" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D296" t="n">
-        <v>274</v>
-      </c>
-      <c r="E296" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F296" t="n">
-        <v>50</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="C297" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D297" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="E297" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F297" t="n">
-        <v>4.3882</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="C298" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D298" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="E298" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F298" t="n">
-        <v>291.9327</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="C299" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D299" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="E299" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F299" t="n">
-        <v>1859.6067</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="C300" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D300" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="E300" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="F300" t="n">
-        <v>1487.7039</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-306703.21019568</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="C301" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="D301" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="E301" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="F301" t="n">
-        <v>602.2412</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-307305.45139568</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>273</v>
-      </c>
-      <c r="C302" t="n">
-        <v>273</v>
-      </c>
-      <c r="D302" t="n">
-        <v>273</v>
-      </c>
-      <c r="E302" t="n">
-        <v>273</v>
-      </c>
-      <c r="F302" t="n">
-        <v>11.6359</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-307293.81549568</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>273</v>
-      </c>
-      <c r="C303" t="n">
-        <v>273</v>
-      </c>
-      <c r="D303" t="n">
-        <v>273</v>
-      </c>
-      <c r="E303" t="n">
-        <v>273</v>
-      </c>
-      <c r="F303" t="n">
-        <v>26.2287</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-307293.81549568</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>273</v>
-      </c>
-      <c r="C304" t="n">
-        <v>273</v>
-      </c>
-      <c r="D304" t="n">
-        <v>273</v>
-      </c>
-      <c r="E304" t="n">
-        <v>273</v>
-      </c>
-      <c r="F304" t="n">
-        <v>199.9732</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-307293.81549568</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="C305" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="D305" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="E305" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="F305" t="n">
-        <v>3723.4327</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-303570.38279568</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="C306" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="D306" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="E306" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="F306" t="n">
-        <v>296.4399</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-303866.82269568</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="C307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="D307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="E307" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="F307" t="n">
-        <v>712.4648999999999</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-303866.82269568</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="C308" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="D308" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="E308" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="F308" t="n">
-        <v>641.2184</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-303866.82269568</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="C309" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="D309" t="n">
-        <v>274.8</v>
-      </c>
-      <c r="E309" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="F309" t="n">
-        <v>200</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-303666.82269568</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="C310" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="D310" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="E310" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="F310" t="n">
-        <v>644.4583</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-304311.28099568</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>273</v>
-      </c>
-      <c r="C311" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="D311" t="n">
-        <v>273</v>
-      </c>
-      <c r="E311" t="n">
-        <v>272.6</v>
-      </c>
-      <c r="F311" t="n">
-        <v>1776.4336</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-306087.71459568</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10821,10 +10733,14 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="J312" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10858,10 +10774,14 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="J313" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10895,10 +10815,14 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="J314" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10932,10 +10856,14 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="J315" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10969,10 +10897,14 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="J316" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11006,10 +10938,14 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>274</v>
+      </c>
+      <c r="J317" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11043,10 +10979,14 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>274</v>
+      </c>
+      <c r="J318" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11080,10 +11020,14 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>274</v>
+      </c>
+      <c r="J319" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11117,10 +11061,14 @@
         <v>-307110.14899568</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>274</v>
+      </c>
+      <c r="J320" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11154,10 +11102,14 @@
         <v>-309110.14899568</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="J321" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11196,7 +11148,9 @@
       <c r="I322" t="n">
         <v>272.8</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11230,10 +11184,14 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>271.7</v>
+      </c>
+      <c r="J323" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11267,10 +11225,14 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>273.3</v>
+      </c>
+      <c r="J324" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11304,10 +11266,14 @@
         <v>-320366.53879568</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>273.3</v>
+      </c>
+      <c r="J325" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11341,10 +11307,14 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>274</v>
+      </c>
+      <c r="J326" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11378,10 +11348,14 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>275</v>
+      </c>
+      <c r="J327" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11415,10 +11389,14 @@
         <v>-291584.57209568</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>275</v>
+      </c>
+      <c r="J328" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11455,7 +11433,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11492,7 +11472,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11529,7 +11511,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11566,7 +11550,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11603,7 +11589,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11640,7 +11628,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11674,10 +11664,14 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>274</v>
+      </c>
+      <c r="J335" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11711,10 +11705,14 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>274.6</v>
+      </c>
+      <c r="J336" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11748,10 +11746,14 @@
         <v>-304609.96119568</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>274.6</v>
+      </c>
+      <c r="J337" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11785,10 +11787,14 @@
         <v>-297388.36119568</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="J338" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11822,10 +11828,14 @@
         <v>-296982.11119568</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="J339" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11859,10 +11869,14 @@
         <v>-296982.11119568</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11896,10 +11910,14 @@
         <v>-294153.8111956801</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>275.1</v>
+      </c>
+      <c r="J341" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11933,10 +11951,14 @@
         <v>-287002.8111956801</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="J342" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11970,10 +11992,14 @@
         <v>-290385.0358956801</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>275.9</v>
+      </c>
+      <c r="J343" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12010,7 +12036,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12047,7 +12075,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12084,7 +12114,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12121,7 +12153,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12158,7 +12192,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12192,16 +12228,20 @@
         <v>-257912.4520956801</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>273.6</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
       <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
@@ -12227,11 +12267,17 @@
         <v>-257983.0423956801</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12263,8 +12309,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12296,8 +12348,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12329,8 +12387,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12362,8 +12426,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12395,8 +12465,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12428,8 +12504,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12461,8 +12543,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12494,8 +12582,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12527,8 +12621,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12560,8 +12660,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12593,8 +12699,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12626,8 +12738,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12659,8 +12777,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12692,8 +12816,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12725,8 +12855,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12758,8 +12894,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12791,8 +12933,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12824,8 +12972,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12857,8 +13011,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12890,8 +13050,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12923,8 +13089,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12956,8 +13128,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12989,8 +13167,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13022,8 +13206,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13055,8 +13245,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13088,8 +13284,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
